--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_25_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_25_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>350482.254890721</v>
+        <v>349833.8956639165</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>63.77305697545741</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,17 +1376,17 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>72.40356150710426</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>7.105504016099173</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>72.40356150710426</v>
+        <v>56.66755295935818</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>6.556120159855261</v>
+        <v>6.55612015985526</v>
       </c>
       <c r="T13" t="n">
         <v>13.00701368779516</v>
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>63.77305697545739</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>72.40356150710426</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>72.40356150710426</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1664,10 +1664,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>63.77305697545741</v>
       </c>
       <c r="W14" t="n">
-        <v>72.40356150710426</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>6.556120159855261</v>
+        <v>6.55612015985526</v>
       </c>
       <c r="T16" t="n">
         <v>13.00701368779516</v>
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>34.88964134293042</v>
+        <v>34.88964134293047</v>
       </c>
       <c r="C20" t="n">
-        <v>17.42869145045739</v>
+        <v>17.42869145045745</v>
       </c>
       <c r="D20" t="n">
-        <v>6.838841300132799</v>
+        <v>6.838841300132856</v>
       </c>
       <c r="E20" t="n">
-        <v>34.08616975171162</v>
+        <v>34.08616975171168</v>
       </c>
       <c r="F20" t="n">
-        <v>59.03184542116128</v>
+        <v>59.03184542116134</v>
       </c>
       <c r="G20" t="n">
-        <v>67.03114514009138</v>
+        <v>67.03114514009144</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.396768396862853</v>
+        <v>1.39676839686291</v>
       </c>
       <c r="X20" t="n">
-        <v>21.88690035791888</v>
+        <v>21.88690035791893</v>
       </c>
       <c r="Y20" t="n">
-        <v>38.39373833550343</v>
+        <v>38.39373833550349</v>
       </c>
     </row>
     <row r="21">
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34.88964134293042</v>
+        <v>34.88964134293047</v>
       </c>
       <c r="C23" t="n">
-        <v>17.42869145045739</v>
+        <v>17.42869145045745</v>
       </c>
       <c r="D23" t="n">
-        <v>6.838841300132799</v>
+        <v>6.838841300132856</v>
       </c>
       <c r="E23" t="n">
-        <v>34.08616975171162</v>
+        <v>34.08616975171168</v>
       </c>
       <c r="F23" t="n">
-        <v>59.03184542116128</v>
+        <v>59.03184542116134</v>
       </c>
       <c r="G23" t="n">
-        <v>67.03114514009138</v>
+        <v>67.03114514009144</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1.396768396862853</v>
+        <v>1.39676839686291</v>
       </c>
       <c r="X23" t="n">
-        <v>21.88690035791888</v>
+        <v>21.88690035791893</v>
       </c>
       <c r="Y23" t="n">
-        <v>38.39373833550343</v>
+        <v>38.39373833550349</v>
       </c>
     </row>
     <row r="24">
@@ -2555,7 +2555,7 @@
         <v>161.5089008178947</v>
       </c>
       <c r="C26" t="n">
-        <v>144.0479509254217</v>
+        <v>144.0479509254216</v>
       </c>
       <c r="D26" t="n">
         <v>133.4581007750971</v>
@@ -2564,10 +2564,10 @@
         <v>160.7054292266759</v>
       </c>
       <c r="F26" t="n">
-        <v>185.6511048961256</v>
+        <v>185.6511048961255</v>
       </c>
       <c r="G26" t="n">
-        <v>193.6504046150557</v>
+        <v>193.6504046150556</v>
       </c>
       <c r="H26" t="n">
         <v>113.8728323920994</v>
@@ -2609,16 +2609,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>30.08652069789116</v>
+        <v>30.08652069789111</v>
       </c>
       <c r="V26" t="n">
-        <v>106.5273176245491</v>
+        <v>106.527317624549</v>
       </c>
       <c r="W26" t="n">
-        <v>128.0160278718272</v>
+        <v>128.0160278718271</v>
       </c>
       <c r="X26" t="n">
-        <v>148.5061598328832</v>
+        <v>148.5061598328831</v>
       </c>
       <c r="Y26" t="n">
         <v>165.0129978104677</v>
@@ -2688,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>4.701396833470772</v>
+        <v>4.701396833470715</v>
       </c>
       <c r="V27" t="n">
-        <v>11.57564630383942</v>
+        <v>11.57564630383936</v>
       </c>
       <c r="W27" t="n">
-        <v>30.47004231533376</v>
+        <v>30.4700423153337</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2764,19 +2764,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>5.901509671696053</v>
+        <v>5.901509671695996</v>
       </c>
       <c r="U28" t="n">
-        <v>65.08363141842419</v>
+        <v>65.08363141842413</v>
       </c>
       <c r="V28" t="n">
-        <v>30.91270247824215</v>
+        <v>30.9127024782421</v>
       </c>
       <c r="W28" t="n">
-        <v>65.29805749100515</v>
+        <v>65.2980574910051</v>
       </c>
       <c r="X28" t="n">
-        <v>4.484714543451304</v>
+        <v>4.484714543451247</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>161.5089008178947</v>
+        <v>161.5089008178946</v>
       </c>
       <c r="C29" t="n">
-        <v>144.0479509254217</v>
+        <v>144.0479509254216</v>
       </c>
       <c r="D29" t="n">
-        <v>133.4581007750971</v>
+        <v>133.458100775097</v>
       </c>
       <c r="E29" t="n">
-        <v>160.7054292266759</v>
+        <v>160.7054292266758</v>
       </c>
       <c r="F29" t="n">
-        <v>185.6511048961256</v>
+        <v>185.6511048961255</v>
       </c>
       <c r="G29" t="n">
-        <v>193.6504046150557</v>
+        <v>193.6504046150556</v>
       </c>
       <c r="H29" t="n">
-        <v>113.8728323920994</v>
+        <v>113.8728323920993</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2846,16 +2846,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>30.08652069789116</v>
+        <v>30.08652069789107</v>
       </c>
       <c r="V29" t="n">
-        <v>106.5273176245491</v>
+        <v>106.527317624549</v>
       </c>
       <c r="W29" t="n">
-        <v>128.0160278718272</v>
+        <v>128.0160278718271</v>
       </c>
       <c r="X29" t="n">
-        <v>148.5061598328832</v>
+        <v>148.5061598328831</v>
       </c>
       <c r="Y29" t="n">
         <v>165.0129978104677</v>
@@ -2925,13 +2925,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>4.701396833470772</v>
+        <v>4.701396833470687</v>
       </c>
       <c r="V30" t="n">
-        <v>11.57564630383942</v>
+        <v>11.57564630383933</v>
       </c>
       <c r="W30" t="n">
-        <v>30.47004231533376</v>
+        <v>30.47004231533367</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3001,19 +3001,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>5.901509671696053</v>
+        <v>5.901509671695968</v>
       </c>
       <c r="U31" t="n">
-        <v>65.08363141842419</v>
+        <v>65.0836314184241</v>
       </c>
       <c r="V31" t="n">
-        <v>30.91270247824215</v>
+        <v>30.91270247824207</v>
       </c>
       <c r="W31" t="n">
-        <v>65.29805749100515</v>
+        <v>65.29805749100507</v>
       </c>
       <c r="X31" t="n">
-        <v>4.484714543451304</v>
+        <v>4.484714543451219</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>161.5089008178946</v>
+        <v>161.5089008178947</v>
       </c>
       <c r="C32" t="n">
         <v>144.0479509254216</v>
       </c>
       <c r="D32" t="n">
-        <v>133.458100775097</v>
+        <v>133.4581007750971</v>
       </c>
       <c r="E32" t="n">
-        <v>160.7054292266758</v>
+        <v>160.7054292266759</v>
       </c>
       <c r="F32" t="n">
         <v>185.6511048961255</v>
@@ -3044,7 +3044,7 @@
         <v>193.6504046150556</v>
       </c>
       <c r="H32" t="n">
-        <v>113.8728323920993</v>
+        <v>113.8728323920994</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>30.08652069789107</v>
+        <v>30.0865206978911</v>
       </c>
       <c r="V32" t="n">
         <v>106.527317624549</v>
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>4.701396833470687</v>
+        <v>4.701396833470715</v>
       </c>
       <c r="V33" t="n">
-        <v>11.57564630383933</v>
+        <v>11.57564630383936</v>
       </c>
       <c r="W33" t="n">
-        <v>30.47004231533367</v>
+        <v>30.4700423153337</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3238,19 +3238,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>5.901509671695968</v>
+        <v>5.901509671695996</v>
       </c>
       <c r="U34" t="n">
-        <v>65.0836314184241</v>
+        <v>65.08363141842413</v>
       </c>
       <c r="V34" t="n">
-        <v>30.91270247824207</v>
+        <v>30.9127024782421</v>
       </c>
       <c r="W34" t="n">
-        <v>65.29805749100507</v>
+        <v>65.2980574910051</v>
       </c>
       <c r="X34" t="n">
-        <v>4.484714543451219</v>
+        <v>4.484714543451247</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>138.0935890264973</v>
+        <v>138.0935890264972</v>
       </c>
       <c r="C35" t="n">
-        <v>120.6326391340242</v>
+        <v>120.6326391340241</v>
       </c>
       <c r="D35" t="n">
         <v>110.0427889836996</v>
       </c>
       <c r="E35" t="n">
-        <v>137.2901174352785</v>
+        <v>137.2901174352784</v>
       </c>
       <c r="F35" t="n">
-        <v>162.2357931047281</v>
+        <v>162.235793104728</v>
       </c>
       <c r="G35" t="n">
-        <v>170.2350928236582</v>
+        <v>170.2350928236581</v>
       </c>
       <c r="H35" t="n">
-        <v>90.45752060070194</v>
+        <v>90.45752060070186</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>6.671208906493689</v>
+        <v>6.671208906493607</v>
       </c>
       <c r="V35" t="n">
-        <v>83.11200583315158</v>
+        <v>83.1120058331515</v>
       </c>
       <c r="W35" t="n">
-        <v>104.6007160804297</v>
+        <v>104.6007160804296</v>
       </c>
       <c r="X35" t="n">
-        <v>125.0908480414857</v>
+        <v>125.0908480414856</v>
       </c>
       <c r="Y35" t="n">
-        <v>141.5976860190703</v>
+        <v>141.5976860190702</v>
       </c>
     </row>
     <row r="36">
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>7.054730523936286</v>
+        <v>7.0547305239362</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>41.66831962702672</v>
+        <v>41.66831962702663</v>
       </c>
       <c r="V37" t="n">
-        <v>7.497390686844682</v>
+        <v>7.497390686844597</v>
       </c>
       <c r="W37" t="n">
-        <v>41.88274569960768</v>
+        <v>41.8827456996076</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>138.0935890264973</v>
+        <v>138.0935890264972</v>
       </c>
       <c r="C38" t="n">
-        <v>120.6326391340242</v>
+        <v>120.6326391340241</v>
       </c>
       <c r="D38" t="n">
         <v>110.0427889836996</v>
       </c>
       <c r="E38" t="n">
-        <v>137.2901174352785</v>
+        <v>137.2901174352784</v>
       </c>
       <c r="F38" t="n">
-        <v>162.2357931047281</v>
+        <v>162.235793104728</v>
       </c>
       <c r="G38" t="n">
-        <v>170.2350928236582</v>
+        <v>170.2350928236581</v>
       </c>
       <c r="H38" t="n">
-        <v>90.45752060070194</v>
+        <v>90.45752060070186</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>6.671208906493689</v>
+        <v>6.671208906493604</v>
       </c>
       <c r="V38" t="n">
-        <v>83.11200583315158</v>
+        <v>83.1120058331515</v>
       </c>
       <c r="W38" t="n">
-        <v>104.6007160804297</v>
+        <v>104.6007160804296</v>
       </c>
       <c r="X38" t="n">
-        <v>125.0908480414857</v>
+        <v>125.0908480414856</v>
       </c>
       <c r="Y38" t="n">
-        <v>141.5976860190703</v>
+        <v>141.5976860190702</v>
       </c>
     </row>
     <row r="39">
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>7.054730523936286</v>
+        <v>7.0547305239362</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>41.66831962702672</v>
+        <v>41.66831962702663</v>
       </c>
       <c r="V40" t="n">
-        <v>7.497390686844682</v>
+        <v>7.497390686844597</v>
       </c>
       <c r="W40" t="n">
-        <v>41.88274569960768</v>
+        <v>41.8827456996076</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,22 +3740,22 @@
         <v>138.0935890264973</v>
       </c>
       <c r="C41" t="n">
-        <v>120.6326391340243</v>
+        <v>120.6326391340242</v>
       </c>
       <c r="D41" t="n">
-        <v>110.0427889836997</v>
+        <v>110.0427889836996</v>
       </c>
       <c r="E41" t="n">
         <v>137.2901174352785</v>
       </c>
       <c r="F41" t="n">
-        <v>162.2357931047282</v>
+        <v>162.2357931047281</v>
       </c>
       <c r="G41" t="n">
         <v>170.2350928236582</v>
       </c>
       <c r="H41" t="n">
-        <v>90.457520600702</v>
+        <v>90.45752060070194</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,16 +3794,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>6.671208906493749</v>
+        <v>6.671208906493693</v>
       </c>
       <c r="V41" t="n">
-        <v>83.11200583315164</v>
+        <v>83.11200583315158</v>
       </c>
       <c r="W41" t="n">
         <v>104.6007160804297</v>
       </c>
       <c r="X41" t="n">
-        <v>125.0908480414858</v>
+        <v>125.0908480414857</v>
       </c>
       <c r="Y41" t="n">
         <v>141.5976860190703</v>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>7.054730523936342</v>
+        <v>7.054730523936286</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>41.66831962702678</v>
+        <v>41.66831962702672</v>
       </c>
       <c r="V43" t="n">
-        <v>7.497390686844739</v>
+        <v>7.497390686844682</v>
       </c>
       <c r="W43" t="n">
-        <v>41.88274569960774</v>
+        <v>41.88274569960768</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3977,22 +3977,22 @@
         <v>138.0935890264973</v>
       </c>
       <c r="C44" t="n">
-        <v>120.6326391340232</v>
+        <v>120.6326391340242</v>
       </c>
       <c r="D44" t="n">
-        <v>110.0427889836997</v>
+        <v>110.0427889836996</v>
       </c>
       <c r="E44" t="n">
-        <v>137.2901174352785</v>
+        <v>137.2901174352777</v>
       </c>
       <c r="F44" t="n">
-        <v>162.2357931047282</v>
+        <v>162.2357931047281</v>
       </c>
       <c r="G44" t="n">
         <v>170.2350928236582</v>
       </c>
       <c r="H44" t="n">
-        <v>90.457520600702</v>
+        <v>90.45752060070194</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,16 +4031,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>6.671208906493749</v>
+        <v>6.671208906493693</v>
       </c>
       <c r="V44" t="n">
-        <v>83.11200583315164</v>
+        <v>83.11200583315158</v>
       </c>
       <c r="W44" t="n">
         <v>104.6007160804297</v>
       </c>
       <c r="X44" t="n">
-        <v>125.0908480414858</v>
+        <v>125.0908480414857</v>
       </c>
       <c r="Y44" t="n">
         <v>141.5976860190703</v>
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>7.054730523936342</v>
+        <v>7.054730523936286</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>41.66831962702678</v>
+        <v>41.66831962702672</v>
       </c>
       <c r="V46" t="n">
-        <v>7.497390686844739</v>
+        <v>7.497390686844682</v>
       </c>
       <c r="W46" t="n">
-        <v>41.88274569960774</v>
+        <v>41.88274569960768</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>78.92719553380496</v>
+        <v>152.0621061470416</v>
       </c>
       <c r="C11" t="n">
-        <v>78.92719553380496</v>
+        <v>152.0621061470416</v>
       </c>
       <c r="D11" t="n">
-        <v>78.92719553380496</v>
+        <v>152.0621061470416</v>
       </c>
       <c r="E11" t="n">
         <v>78.92719553380496</v>
@@ -5030,61 +5030,61 @@
         <v>78.92719553380496</v>
       </c>
       <c r="G11" t="n">
-        <v>5.792284920568341</v>
+        <v>78.92719553380496</v>
       </c>
       <c r="H11" t="n">
         <v>5.792284920568341</v>
       </c>
       <c r="I11" t="n">
-        <v>25.71165856611166</v>
+        <v>25.71165856611167</v>
       </c>
       <c r="J11" t="n">
         <v>94.36607826710387</v>
       </c>
       <c r="K11" t="n">
-        <v>142.2775815250289</v>
+        <v>137.9623082393214</v>
       </c>
       <c r="L11" t="n">
-        <v>171.0255964881736</v>
+        <v>137.9623082393214</v>
       </c>
       <c r="M11" t="n">
-        <v>229.2569100920671</v>
+        <v>137.9623082393214</v>
       </c>
       <c r="N11" t="n">
-        <v>289.614246028417</v>
+        <v>137.9623082393214</v>
       </c>
       <c r="O11" t="n">
-        <v>289.614246028417</v>
+        <v>193.4339668843752</v>
       </c>
       <c r="P11" t="n">
-        <v>289.614246028417</v>
+        <v>237.3364601073259</v>
       </c>
       <c r="Q11" t="n">
-        <v>289.614246028417</v>
+        <v>274.9240679802544</v>
       </c>
       <c r="R11" t="n">
-        <v>289.614246028417</v>
+        <v>274.9240679802544</v>
       </c>
       <c r="S11" t="n">
         <v>289.614246028417</v>
       </c>
       <c r="T11" t="n">
-        <v>289.614246028417</v>
+        <v>282.4369692444784</v>
       </c>
       <c r="U11" t="n">
-        <v>289.614246028417</v>
+        <v>282.4369692444784</v>
       </c>
       <c r="V11" t="n">
-        <v>216.4793354151804</v>
+        <v>209.3020586312418</v>
       </c>
       <c r="W11" t="n">
-        <v>216.4793354151804</v>
+        <v>209.3020586312418</v>
       </c>
       <c r="X11" t="n">
-        <v>143.3444248019438</v>
+        <v>152.0621061470416</v>
       </c>
       <c r="Y11" t="n">
-        <v>143.3444248019438</v>
+        <v>152.0621061470416</v>
       </c>
     </row>
     <row r="12">
@@ -5124,16 +5124,16 @@
         <v>5.792284920568341</v>
       </c>
       <c r="L12" t="n">
-        <v>5.792284920568341</v>
+        <v>74.5433935073777</v>
       </c>
       <c r="M12" t="n">
-        <v>5.792284920568341</v>
+        <v>74.5433935073777</v>
       </c>
       <c r="N12" t="n">
-        <v>5.792284920568341</v>
+        <v>74.5433935073777</v>
       </c>
       <c r="O12" t="n">
-        <v>5.792284920568341</v>
+        <v>74.5433935073777</v>
       </c>
       <c r="P12" t="n">
         <v>74.5433935073777</v>
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.792284920568341</v>
+        <v>39.203220201453</v>
       </c>
       <c r="C13" t="n">
-        <v>5.792284920568341</v>
+        <v>85.60710977500332</v>
       </c>
       <c r="D13" t="n">
-        <v>5.792284920568341</v>
+        <v>85.60710977500332</v>
       </c>
       <c r="E13" t="n">
-        <v>5.792284920568341</v>
+        <v>85.60710977500332</v>
       </c>
       <c r="F13" t="n">
-        <v>5.792284920568341</v>
+        <v>85.60710977500332</v>
       </c>
       <c r="G13" t="n">
-        <v>5.792284920568341</v>
+        <v>85.60710977500332</v>
       </c>
       <c r="H13" t="n">
-        <v>5.792284920568341</v>
+        <v>85.60710977500332</v>
       </c>
       <c r="I13" t="n">
-        <v>5.792284920568341</v>
+        <v>85.60710977500332</v>
       </c>
       <c r="J13" t="n">
-        <v>5.792284920568341</v>
+        <v>85.60710977500332</v>
       </c>
       <c r="K13" t="n">
-        <v>5.792284920568341</v>
+        <v>85.60710977500332</v>
       </c>
       <c r="L13" t="n">
-        <v>77.47181081260155</v>
+        <v>157.2866356670365</v>
       </c>
       <c r="M13" t="n">
-        <v>149.1513367046348</v>
+        <v>226.2260953910508</v>
       </c>
       <c r="N13" t="n">
-        <v>149.1513367046348</v>
+        <v>226.2260953910508</v>
       </c>
       <c r="O13" t="n">
-        <v>149.1513367046348</v>
+        <v>226.2260953910508</v>
       </c>
       <c r="P13" t="n">
-        <v>169.4121015071329</v>
+        <v>226.2260953910508</v>
       </c>
       <c r="Q13" t="n">
         <v>226.2260953910508</v>
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>216.4793354151804</v>
+        <v>152.0621061470416</v>
       </c>
       <c r="C14" t="n">
-        <v>216.4793354151804</v>
+        <v>78.92719553380496</v>
       </c>
       <c r="D14" t="n">
-        <v>216.4793354151804</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="E14" t="n">
-        <v>216.4793354151804</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="F14" t="n">
-        <v>152.0621061470416</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="G14" t="n">
-        <v>78.92719553380496</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="H14" t="n">
         <v>5.792284920568341</v>
       </c>
       <c r="I14" t="n">
-        <v>25.71165856611166</v>
+        <v>13.31683526514534</v>
       </c>
       <c r="J14" t="n">
-        <v>97.39118445814488</v>
+        <v>81.97125496613755</v>
       </c>
       <c r="K14" t="n">
-        <v>108.6675863714221</v>
+        <v>129.8827582240626</v>
       </c>
       <c r="L14" t="n">
-        <v>108.6675863714221</v>
+        <v>129.8827582240626</v>
       </c>
       <c r="M14" t="n">
-        <v>180.3471122634554</v>
+        <v>129.8827582240626</v>
       </c>
       <c r="N14" t="n">
-        <v>180.3471122634554</v>
+        <v>190.2400941604125</v>
       </c>
       <c r="O14" t="n">
-        <v>252.0266381554886</v>
+        <v>245.7117528054663</v>
       </c>
       <c r="P14" t="n">
-        <v>252.0266381554886</v>
+        <v>289.614246028417</v>
       </c>
       <c r="Q14" t="n">
         <v>289.614246028417</v>
@@ -5312,16 +5312,16 @@
         <v>289.614246028417</v>
       </c>
       <c r="V14" t="n">
-        <v>289.614246028417</v>
+        <v>225.1970167602782</v>
       </c>
       <c r="W14" t="n">
-        <v>216.4793354151804</v>
+        <v>225.1970167602782</v>
       </c>
       <c r="X14" t="n">
-        <v>216.4793354151804</v>
+        <v>225.1970167602782</v>
       </c>
       <c r="Y14" t="n">
-        <v>216.4793354151804</v>
+        <v>225.1970167602782</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>5.792284920568341</v>
       </c>
       <c r="J15" t="n">
-        <v>74.5433935073777</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="K15" t="n">
-        <v>74.5433935073777</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="L15" t="n">
-        <v>74.5433935073777</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="M15" t="n">
-        <v>74.5433935073777</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="N15" t="n">
-        <v>74.5433935073777</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="O15" t="n">
-        <v>74.5433935073777</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="P15" t="n">
-        <v>74.5433935073777</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="Q15" t="n">
         <v>74.5433935073777</v>
@@ -5416,28 +5416,28 @@
         <v>5.792284920568341</v>
       </c>
       <c r="D16" t="n">
-        <v>29.80624091452363</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="E16" t="n">
-        <v>29.80624091452363</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="F16" t="n">
-        <v>29.80624091452363</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="G16" t="n">
-        <v>29.80624091452363</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="H16" t="n">
-        <v>82.86704360698442</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="I16" t="n">
-        <v>82.86704360698442</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="J16" t="n">
-        <v>82.86704360698442</v>
+        <v>11.18751771495121</v>
       </c>
       <c r="K16" t="n">
-        <v>82.86704360698442</v>
+        <v>11.18751771495121</v>
       </c>
       <c r="L16" t="n">
         <v>82.86704360698442</v>
@@ -5449,7 +5449,7 @@
         <v>154.5465694990176</v>
       </c>
       <c r="O16" t="n">
-        <v>226.2260953910508</v>
+        <v>154.5465694990176</v>
       </c>
       <c r="P16" t="n">
         <v>226.2260953910508</v>
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>192.0717728635531</v>
+        <v>192.0717728635524</v>
       </c>
       <c r="C17" t="n">
-        <v>174.4670340247071</v>
+        <v>174.4670340247064</v>
       </c>
       <c r="D17" t="n">
-        <v>167.5591135195225</v>
+        <v>167.5591135195217</v>
       </c>
       <c r="E17" t="n">
-        <v>133.1286390228438</v>
+        <v>133.1286390228432</v>
       </c>
       <c r="F17" t="n">
         <v>73.50051233480211</v>
@@ -5516,13 +5516,13 @@
         <v>77.47181081260155</v>
       </c>
       <c r="K17" t="n">
-        <v>149.1513367046348</v>
+        <v>77.47181081260155</v>
       </c>
       <c r="L17" t="n">
-        <v>149.1513367046348</v>
+        <v>77.47181081260155</v>
       </c>
       <c r="M17" t="n">
-        <v>149.1513367046348</v>
+        <v>77.47181081260155</v>
       </c>
       <c r="N17" t="n">
         <v>149.1513367046348</v>
@@ -5534,16 +5534,16 @@
         <v>149.1513367046348</v>
       </c>
       <c r="Q17" t="n">
-        <v>220.830862596668</v>
+        <v>217.9347201363838</v>
       </c>
       <c r="R17" t="n">
-        <v>289.614246028417</v>
+        <v>217.9347201363838</v>
       </c>
       <c r="S17" t="n">
-        <v>289.614246028417</v>
+        <v>217.9347201363838</v>
       </c>
       <c r="T17" t="n">
-        <v>289.614246028417</v>
+        <v>217.9347201363838</v>
       </c>
       <c r="U17" t="n">
         <v>289.614246028417</v>
@@ -5552,13 +5552,13 @@
         <v>289.614246028417</v>
       </c>
       <c r="W17" t="n">
-        <v>288.203368859869</v>
+        <v>288.2033688598686</v>
       </c>
       <c r="X17" t="n">
-        <v>266.095388700355</v>
+        <v>266.0953887003545</v>
       </c>
       <c r="Y17" t="n">
-        <v>227.3138348261091</v>
+        <v>227.3138348261084</v>
       </c>
     </row>
     <row r="18">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>192.0717728635525</v>
+        <v>192.0717728635531</v>
       </c>
       <c r="C20" t="n">
-        <v>174.4670340247066</v>
+        <v>174.4670340247071</v>
       </c>
       <c r="D20" t="n">
-        <v>167.5591135195219</v>
+        <v>167.5591135195225</v>
       </c>
       <c r="E20" t="n">
-        <v>133.1286390228435</v>
+        <v>133.1286390228438</v>
       </c>
       <c r="F20" t="n">
-        <v>73.50051233480205</v>
+        <v>73.50051233480211</v>
       </c>
       <c r="G20" t="n">
         <v>5.792284920568341</v>
@@ -5753,16 +5753,16 @@
         <v>5.792284920568341</v>
       </c>
       <c r="K20" t="n">
-        <v>74.57566835231739</v>
+        <v>77.47181081260155</v>
       </c>
       <c r="L20" t="n">
-        <v>74.57566835231739</v>
+        <v>77.47181081260155</v>
       </c>
       <c r="M20" t="n">
-        <v>74.57566835231739</v>
+        <v>77.47181081260155</v>
       </c>
       <c r="N20" t="n">
-        <v>146.2551942443506</v>
+        <v>77.47181081260155</v>
       </c>
       <c r="O20" t="n">
         <v>146.2551942443506</v>
@@ -5774,10 +5774,10 @@
         <v>217.9347201363838</v>
       </c>
       <c r="R20" t="n">
-        <v>217.9347201363838</v>
+        <v>289.614246028417</v>
       </c>
       <c r="S20" t="n">
-        <v>217.9347201363838</v>
+        <v>289.614246028417</v>
       </c>
       <c r="T20" t="n">
         <v>289.614246028417</v>
@@ -5789,13 +5789,13 @@
         <v>289.614246028417</v>
       </c>
       <c r="W20" t="n">
-        <v>288.2033688598684</v>
+        <v>288.203368859869</v>
       </c>
       <c r="X20" t="n">
-        <v>266.0953887003544</v>
+        <v>266.095388700355</v>
       </c>
       <c r="Y20" t="n">
-        <v>227.3138348261085</v>
+        <v>227.3138348261091</v>
       </c>
     </row>
     <row r="21">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>192.0717728635528</v>
+        <v>192.0717728635524</v>
       </c>
       <c r="C23" t="n">
-        <v>174.4670340247069</v>
+        <v>174.4670340247064</v>
       </c>
       <c r="D23" t="n">
-        <v>167.5591135195223</v>
+        <v>167.5591135195218</v>
       </c>
       <c r="E23" t="n">
-        <v>133.1286390228439</v>
+        <v>133.1286390228438</v>
       </c>
       <c r="F23" t="n">
-        <v>73.50051233480205</v>
+        <v>73.50051233480212</v>
       </c>
       <c r="G23" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="H23" t="n">
-        <v>18.41124773260459</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="I23" t="n">
-        <v>18.41124773260459</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="J23" t="n">
-        <v>18.41124773260459</v>
+        <v>77.47181081260162</v>
       </c>
       <c r="K23" t="n">
-        <v>18.41124773260459</v>
+        <v>77.47181081260162</v>
       </c>
       <c r="L23" t="n">
-        <v>74.57566835231739</v>
+        <v>77.47181081260162</v>
       </c>
       <c r="M23" t="n">
-        <v>146.2551942443506</v>
+        <v>126.3641718124397</v>
       </c>
       <c r="N23" t="n">
-        <v>146.2551942443506</v>
+        <v>126.3641718124397</v>
       </c>
       <c r="O23" t="n">
-        <v>217.9347201363838</v>
+        <v>126.3641718124397</v>
       </c>
       <c r="P23" t="n">
-        <v>289.614246028417</v>
+        <v>198.0436977044729</v>
       </c>
       <c r="Q23" t="n">
-        <v>289.614246028417</v>
+        <v>198.0436977044729</v>
       </c>
       <c r="R23" t="n">
-        <v>289.614246028417</v>
+        <v>198.0436977044729</v>
       </c>
       <c r="S23" t="n">
-        <v>289.614246028417</v>
+        <v>198.0436977044729</v>
       </c>
       <c r="T23" t="n">
-        <v>289.614246028417</v>
+        <v>198.0436977044729</v>
       </c>
       <c r="U23" t="n">
-        <v>289.614246028417</v>
+        <v>269.7232235965062</v>
       </c>
       <c r="V23" t="n">
-        <v>289.614246028417</v>
+        <v>289.6142460284173</v>
       </c>
       <c r="W23" t="n">
-        <v>288.2033688598687</v>
+        <v>288.2033688598685</v>
       </c>
       <c r="X23" t="n">
-        <v>266.0953887003546</v>
+        <v>266.0953887003545</v>
       </c>
       <c r="Y23" t="n">
-        <v>227.3138348261087</v>
+        <v>227.3138348261084</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="C24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="D24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="E24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="F24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="G24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="H24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="I24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="J24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="K24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="L24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="M24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="N24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="O24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="P24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="Q24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="R24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="S24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="T24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="U24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="V24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="W24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="X24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="C25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="D25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="E25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="F25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="G25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="H25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="I25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="J25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="K25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="L25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="M25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="N25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="O25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="P25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="R25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="S25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="T25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="U25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="V25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="W25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="X25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>975.2411681339784</v>
+        <v>975.2411681339775</v>
       </c>
       <c r="C26" t="n">
-        <v>829.7381874012292</v>
+        <v>829.7381874012286</v>
       </c>
       <c r="D26" t="n">
-        <v>694.9320250021412</v>
+        <v>694.9320250021407</v>
       </c>
       <c r="E26" t="n">
-        <v>532.6033086115594</v>
+        <v>532.603308611559</v>
       </c>
       <c r="F26" t="n">
-        <v>345.0769400296144</v>
+        <v>345.0769400296139</v>
       </c>
       <c r="G26" t="n">
-        <v>149.4704707214772</v>
+        <v>149.4704707214771</v>
       </c>
       <c r="H26" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="I26" t="n">
-        <v>61.401230320636</v>
+        <v>61.40123032063605</v>
       </c>
       <c r="J26" t="n">
-        <v>85.54321335840994</v>
+        <v>137.0900989975664</v>
       </c>
       <c r="K26" t="n">
-        <v>461.3931240377262</v>
+        <v>192.0360512314296</v>
       </c>
       <c r="L26" t="n">
-        <v>887.679794314764</v>
+        <v>618.3227215084672</v>
       </c>
       <c r="M26" t="n">
-        <v>952.9455568945956</v>
+        <v>1044.609391785505</v>
       </c>
       <c r="N26" t="n">
-        <v>1020.337341806884</v>
+        <v>1112.001176697793</v>
       </c>
       <c r="O26" t="n">
-        <v>1446.624012083922</v>
+        <v>1298.966391162183</v>
       </c>
       <c r="P26" t="n">
-        <v>1700.645757933628</v>
+        <v>1668.484054450839</v>
       </c>
       <c r="Q26" t="n">
-        <v>1700.645757933628</v>
+        <v>1668.484054450839</v>
       </c>
       <c r="R26" t="n">
-        <v>1700.645757933628</v>
+        <v>1700.645757933627</v>
       </c>
       <c r="S26" t="n">
-        <v>1722.370384957729</v>
+        <v>1722.370384957728</v>
       </c>
       <c r="T26" t="n">
-        <v>1722.370384957729</v>
+        <v>1722.370384957728</v>
       </c>
       <c r="U26" t="n">
-        <v>1691.979960010364</v>
+        <v>1691.979960010363</v>
       </c>
       <c r="V26" t="n">
-        <v>1584.376608874456</v>
+        <v>1584.376608874455</v>
       </c>
       <c r="W26" t="n">
-        <v>1455.067489812004</v>
+        <v>1455.067489812003</v>
       </c>
       <c r="X26" t="n">
-        <v>1305.061267758587</v>
+        <v>1305.061267758586</v>
       </c>
       <c r="Y26" t="n">
-        <v>1138.381471990438</v>
+        <v>1138.381471990437</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="C27" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="D27" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="E27" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="F27" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="G27" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="H27" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="I27" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="J27" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="K27" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="L27" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="M27" t="n">
-        <v>81.66668593414846</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="N27" t="n">
-        <v>81.66668593414846</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="O27" t="n">
-        <v>81.66668593414846</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="P27" t="n">
-        <v>81.66668593414846</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="Q27" t="n">
-        <v>81.66668593414846</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="R27" t="n">
-        <v>81.66668593414846</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="S27" t="n">
-        <v>81.66668593414846</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="T27" t="n">
-        <v>81.66668593414846</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="U27" t="n">
-        <v>76.91780024377394</v>
+        <v>76.91780024377381</v>
       </c>
       <c r="V27" t="n">
-        <v>65.22522821969372</v>
+        <v>65.22522821969365</v>
       </c>
       <c r="W27" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="X27" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="Y27" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="C28" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="D28" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="E28" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="F28" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="G28" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="H28" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="I28" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="J28" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="K28" t="n">
-        <v>99.09461837230792</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="L28" t="n">
-        <v>99.09461837230792</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="M28" t="n">
-        <v>99.09461837230792</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="N28" t="n">
-        <v>99.09461837230792</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="O28" t="n">
-        <v>207.8621709343251</v>
+        <v>85.61351852626542</v>
       </c>
       <c r="P28" t="n">
-        <v>207.8621709343251</v>
+        <v>85.61351852626542</v>
       </c>
       <c r="Q28" t="n">
-        <v>207.8621709343251</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="R28" t="n">
-        <v>207.8621709343251</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="S28" t="n">
-        <v>207.8621709343251</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="T28" t="n">
-        <v>201.9010500538241</v>
+        <v>201.9010500538238</v>
       </c>
       <c r="U28" t="n">
-        <v>136.160008217032</v>
+        <v>136.1600082170318</v>
       </c>
       <c r="V28" t="n">
-        <v>104.9350562188076</v>
+        <v>104.9350562188074</v>
       </c>
       <c r="W28" t="n">
-        <v>38.97742238950943</v>
+        <v>38.97742238950935</v>
       </c>
       <c r="X28" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="Y28" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>975.2411681339784</v>
+        <v>975.2411681339781</v>
       </c>
       <c r="C29" t="n">
-        <v>829.7381874012292</v>
+        <v>829.7381874012291</v>
       </c>
       <c r="D29" t="n">
-        <v>694.9320250021412</v>
+        <v>694.9320250021411</v>
       </c>
       <c r="E29" t="n">
         <v>532.6033086115594</v>
@@ -6452,61 +6452,61 @@
         <v>345.0769400296144</v>
       </c>
       <c r="G29" t="n">
-        <v>149.4704707214772</v>
+        <v>149.4704707214771</v>
       </c>
       <c r="H29" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="I29" t="n">
-        <v>61.401230320636</v>
+        <v>61.40123032063607</v>
       </c>
       <c r="J29" t="n">
-        <v>61.401230320636</v>
+        <v>304.4957480179195</v>
       </c>
       <c r="K29" t="n">
-        <v>437.2511409999522</v>
+        <v>680.3456586972359</v>
       </c>
       <c r="L29" t="n">
-        <v>525.8667348650921</v>
+        <v>732.7208142371719</v>
       </c>
       <c r="M29" t="n">
-        <v>952.1534051421299</v>
+        <v>797.9865768170037</v>
       </c>
       <c r="N29" t="n">
-        <v>1019.545190054418</v>
+        <v>1033.858738679336</v>
       </c>
       <c r="O29" t="n">
-        <v>1445.831860331456</v>
+        <v>1254.344334313316</v>
       </c>
       <c r="P29" t="n">
-        <v>1445.831860331456</v>
+        <v>1623.861997601973</v>
       </c>
       <c r="Q29" t="n">
-        <v>1700.645757933628</v>
+        <v>1668.484054450839</v>
       </c>
       <c r="R29" t="n">
-        <v>1700.645757933628</v>
+        <v>1700.645757933627</v>
       </c>
       <c r="S29" t="n">
-        <v>1722.370384957729</v>
+        <v>1722.370384957728</v>
       </c>
       <c r="T29" t="n">
-        <v>1722.370384957729</v>
+        <v>1722.370384957728</v>
       </c>
       <c r="U29" t="n">
-        <v>1691.979960010364</v>
+        <v>1691.979960010363</v>
       </c>
       <c r="V29" t="n">
-        <v>1584.376608874456</v>
+        <v>1584.376608874455</v>
       </c>
       <c r="W29" t="n">
-        <v>1455.067489812004</v>
+        <v>1455.067489812003</v>
       </c>
       <c r="X29" t="n">
-        <v>1305.061267758587</v>
+        <v>1305.061267758586</v>
       </c>
       <c r="Y29" t="n">
-        <v>1138.381471990438</v>
+        <v>1138.381471990437</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="C30" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="D30" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="E30" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="F30" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="G30" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="H30" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="I30" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="J30" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="K30" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="L30" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="M30" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="N30" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="O30" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="P30" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="Q30" t="n">
-        <v>34.44740769915457</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="R30" t="n">
-        <v>34.44740769915457</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="S30" t="n">
-        <v>81.66668593414846</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="T30" t="n">
-        <v>81.66668593414846</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="U30" t="n">
-        <v>76.91780024377394</v>
+        <v>76.91780024377375</v>
       </c>
       <c r="V30" t="n">
-        <v>65.22522821969372</v>
+        <v>65.22522821969362</v>
       </c>
       <c r="W30" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="X30" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="Y30" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="C31" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="D31" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="E31" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="F31" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="G31" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="H31" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="I31" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="J31" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="K31" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="L31" t="n">
-        <v>34.44740769915457</v>
+        <v>96.63458407353149</v>
       </c>
       <c r="M31" t="n">
-        <v>156.6960601072143</v>
+        <v>207.8621709343247</v>
       </c>
       <c r="N31" t="n">
-        <v>156.6960601072143</v>
+        <v>207.8621709343247</v>
       </c>
       <c r="O31" t="n">
-        <v>207.8621709343251</v>
+        <v>207.8621709343247</v>
       </c>
       <c r="P31" t="n">
-        <v>207.8621709343251</v>
+        <v>207.8621709343247</v>
       </c>
       <c r="Q31" t="n">
-        <v>207.8621709343251</v>
+        <v>207.8621709343247</v>
       </c>
       <c r="R31" t="n">
-        <v>207.8621709343251</v>
+        <v>207.8621709343247</v>
       </c>
       <c r="S31" t="n">
-        <v>207.8621709343251</v>
+        <v>207.8621709343247</v>
       </c>
       <c r="T31" t="n">
-        <v>201.9010500538241</v>
+        <v>201.9010500538237</v>
       </c>
       <c r="U31" t="n">
-        <v>136.160008217032</v>
+        <v>136.1600082170317</v>
       </c>
       <c r="V31" t="n">
-        <v>104.9350562188076</v>
+        <v>104.9350562188074</v>
       </c>
       <c r="W31" t="n">
-        <v>38.97742238950943</v>
+        <v>38.97742238950932</v>
       </c>
       <c r="X31" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="Y31" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>975.2411681339787</v>
+        <v>975.2411681339775</v>
       </c>
       <c r="C32" t="n">
-        <v>829.7381874012297</v>
+        <v>829.7381874012286</v>
       </c>
       <c r="D32" t="n">
-        <v>694.9320250021417</v>
+        <v>694.9320250021407</v>
       </c>
       <c r="E32" t="n">
-        <v>532.60330861156</v>
+        <v>532.603308611559</v>
       </c>
       <c r="F32" t="n">
-        <v>345.0769400296151</v>
+        <v>345.076940029614</v>
       </c>
       <c r="G32" t="n">
         <v>149.4704707214771</v>
       </c>
       <c r="H32" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="I32" t="n">
-        <v>61.40123032063609</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="J32" t="n">
-        <v>61.40123032063609</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="K32" t="n">
-        <v>218.2384495628223</v>
+        <v>410.2973183784709</v>
       </c>
       <c r="L32" t="n">
-        <v>644.5251198398602</v>
+        <v>462.6724739184069</v>
       </c>
       <c r="M32" t="n">
-        <v>1070.811790116898</v>
+        <v>888.9591441954444</v>
       </c>
       <c r="N32" t="n">
-        <v>1497.098460393936</v>
+        <v>956.3509291077326</v>
       </c>
       <c r="O32" t="n">
-        <v>1626.811385909973</v>
+        <v>1382.63759938477</v>
       </c>
       <c r="P32" t="n">
-        <v>1677.748328108862</v>
+        <v>1700.645757933627</v>
       </c>
       <c r="Q32" t="n">
-        <v>1722.370384957729</v>
+        <v>1700.645757933627</v>
       </c>
       <c r="R32" t="n">
-        <v>1722.370384957729</v>
+        <v>1700.645757933627</v>
       </c>
       <c r="S32" t="n">
-        <v>1722.370384957729</v>
+        <v>1722.370384957728</v>
       </c>
       <c r="T32" t="n">
-        <v>1722.370384957729</v>
+        <v>1722.370384957728</v>
       </c>
       <c r="U32" t="n">
-        <v>1691.979960010364</v>
+        <v>1691.979960010363</v>
       </c>
       <c r="V32" t="n">
-        <v>1584.376608874456</v>
+        <v>1584.376608874455</v>
       </c>
       <c r="W32" t="n">
-        <v>1455.067489812004</v>
+        <v>1455.067489812003</v>
       </c>
       <c r="X32" t="n">
-        <v>1305.061267758587</v>
+        <v>1305.061267758586</v>
       </c>
       <c r="Y32" t="n">
-        <v>1138.381471990438</v>
+        <v>1138.381471990437</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="C33" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="D33" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="E33" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="F33" t="n">
-        <v>81.66668593414821</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="G33" t="n">
-        <v>81.66668593414821</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="H33" t="n">
-        <v>81.66668593414821</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="I33" t="n">
-        <v>81.66668593414821</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="J33" t="n">
-        <v>81.66668593414821</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="K33" t="n">
-        <v>81.66668593414821</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="L33" t="n">
-        <v>81.66668593414821</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="M33" t="n">
-        <v>81.66668593414821</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="N33" t="n">
-        <v>81.66668593414821</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="O33" t="n">
-        <v>81.66668593414821</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="P33" t="n">
-        <v>81.66668593414821</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="Q33" t="n">
-        <v>81.66668593414821</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="R33" t="n">
-        <v>81.66668593414821</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="S33" t="n">
-        <v>81.66668593414821</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="T33" t="n">
-        <v>81.66668593414821</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="U33" t="n">
-        <v>76.91780024377377</v>
+        <v>76.91780024377381</v>
       </c>
       <c r="V33" t="n">
-        <v>65.22522821969363</v>
+        <v>65.22522821969365</v>
       </c>
       <c r="W33" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="X33" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="Y33" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="C34" t="n">
-        <v>87.8857462486431</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="D34" t="n">
-        <v>87.8857462486431</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="E34" t="n">
-        <v>87.8857462486431</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="F34" t="n">
-        <v>87.8857462486431</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="G34" t="n">
-        <v>87.8857462486431</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="H34" t="n">
-        <v>87.8857462486431</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="I34" t="n">
-        <v>87.8857462486431</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="J34" t="n">
-        <v>87.8857462486431</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="K34" t="n">
-        <v>87.8857462486431</v>
+        <v>135.1273210534256</v>
       </c>
       <c r="L34" t="n">
-        <v>87.8857462486431</v>
+        <v>135.1273210534256</v>
       </c>
       <c r="M34" t="n">
-        <v>87.8857462486431</v>
+        <v>135.1273210534256</v>
       </c>
       <c r="N34" t="n">
-        <v>87.8857462486431</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="O34" t="n">
-        <v>87.8857462486431</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="P34" t="n">
-        <v>193.5027048073706</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="Q34" t="n">
-        <v>193.5027048073706</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="R34" t="n">
-        <v>207.8621709343247</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="S34" t="n">
-        <v>207.8621709343247</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="T34" t="n">
-        <v>201.9010500538237</v>
+        <v>201.9010500538238</v>
       </c>
       <c r="U34" t="n">
-        <v>136.1600082170317</v>
+        <v>136.1600082170318</v>
       </c>
       <c r="V34" t="n">
         <v>104.9350562188074</v>
       </c>
       <c r="W34" t="n">
-        <v>38.97742238950934</v>
+        <v>38.97742238950935</v>
       </c>
       <c r="X34" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="Y34" t="n">
-        <v>34.44740769915457</v>
+        <v>34.44740769915455</v>
       </c>
     </row>
     <row r="35">
@@ -6911,67 +6911,67 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>827.5379026594853</v>
+        <v>827.5379026594851</v>
       </c>
       <c r="C35" t="n">
-        <v>705.6867520190569</v>
+        <v>705.6867520190566</v>
       </c>
       <c r="D35" t="n">
-        <v>594.5324197122895</v>
+        <v>594.5324197122893</v>
       </c>
       <c r="E35" t="n">
-        <v>455.8555334140285</v>
+        <v>455.8555334140283</v>
       </c>
       <c r="F35" t="n">
-        <v>291.9809949244041</v>
+        <v>291.980994924404</v>
       </c>
       <c r="G35" t="n">
-        <v>120.0263557085882</v>
+        <v>120.0263557085881</v>
       </c>
       <c r="H35" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="I35" t="n">
-        <v>78.79010407355116</v>
+        <v>78.79010407355123</v>
       </c>
       <c r="J35" t="n">
-        <v>177.660131423965</v>
+        <v>301.5823602752038</v>
       </c>
       <c r="K35" t="n">
-        <v>255.7872423313116</v>
+        <v>379.7094711825505</v>
       </c>
       <c r="L35" t="n">
-        <v>546.3069430662999</v>
+        <v>455.2657853959699</v>
       </c>
       <c r="M35" t="n">
-        <v>801.2287062001428</v>
+        <v>543.7127066492851</v>
       </c>
       <c r="N35" t="n">
-        <v>1155.835850585147</v>
+        <v>543.7127066492851</v>
       </c>
       <c r="O35" t="n">
-        <v>1241.523116879623</v>
+        <v>898.3198510342895</v>
       </c>
       <c r="P35" t="n">
-        <v>1241.523116879623</v>
+        <v>1252.926995419294</v>
       </c>
       <c r="Q35" t="n">
-        <v>1309.326332401973</v>
+        <v>1309.326332401972</v>
       </c>
       <c r="R35" t="n">
-        <v>1364.669194558244</v>
+        <v>1364.669194558243</v>
       </c>
       <c r="S35" t="n">
-        <v>1409.574980255828</v>
+        <v>1409.574980255827</v>
       </c>
       <c r="T35" t="n">
-        <v>1432.756138929312</v>
+        <v>1432.756138929311</v>
       </c>
       <c r="U35" t="n">
-        <v>1426.017544074268</v>
+        <v>1426.017544074267</v>
       </c>
       <c r="V35" t="n">
-        <v>1342.06602303068</v>
+        <v>1342.066023030679</v>
       </c>
       <c r="W35" t="n">
         <v>1236.408734060549</v>
@@ -6980,7 +6980,7 @@
         <v>1110.054342099452</v>
       </c>
       <c r="Y35" t="n">
-        <v>967.0263764236239</v>
+        <v>967.0263764236234</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="C36" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="D36" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="E36" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="F36" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="G36" t="n">
-        <v>28.65512277858623</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="H36" t="n">
-        <v>28.65512277858623</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="I36" t="n">
-        <v>28.65512277858623</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="J36" t="n">
-        <v>28.65512277858623</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="K36" t="n">
-        <v>28.65512277858623</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="L36" t="n">
-        <v>28.65512277858623</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="M36" t="n">
-        <v>28.65512277858623</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="N36" t="n">
-        <v>28.65512277858623</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="O36" t="n">
-        <v>28.65512277858623</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="P36" t="n">
-        <v>28.65512277858623</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.65512277858623</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="R36" t="n">
-        <v>28.65512277858623</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="S36" t="n">
-        <v>28.65512277858623</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="T36" t="n">
-        <v>35.7811132068047</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="U36" t="n">
-        <v>35.7811132068047</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="V36" t="n">
-        <v>35.7811132068047</v>
+        <v>35.7811132068046</v>
       </c>
       <c r="W36" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="X36" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="Y36" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="C37" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="D37" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="E37" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="F37" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="G37" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="H37" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="I37" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="J37" t="n">
-        <v>28.65512277858623</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="K37" t="n">
-        <v>28.65512277858623</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="L37" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="M37" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="N37" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="O37" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="P37" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="R37" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="S37" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="T37" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="U37" t="n">
-        <v>78.53404842146742</v>
+        <v>78.53404842146722</v>
       </c>
       <c r="V37" t="n">
-        <v>70.9609265155637</v>
+        <v>70.96092651556359</v>
       </c>
       <c r="W37" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="X37" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="Y37" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
     </row>
     <row r="38">
@@ -7148,55 +7148,55 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>827.5379026594856</v>
+        <v>827.5379026594859</v>
       </c>
       <c r="C38" t="n">
-        <v>705.6867520190572</v>
+        <v>705.6867520190574</v>
       </c>
       <c r="D38" t="n">
-        <v>594.5324197122898</v>
+        <v>594.5324197122901</v>
       </c>
       <c r="E38" t="n">
-        <v>455.8555334140286</v>
+        <v>455.8555334140291</v>
       </c>
       <c r="F38" t="n">
-        <v>291.9809949244042</v>
+        <v>291.9809949244048</v>
       </c>
       <c r="G38" t="n">
-        <v>120.0263557085882</v>
+        <v>120.0263557085881</v>
       </c>
       <c r="H38" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="I38" t="n">
-        <v>78.79010407355116</v>
+        <v>78.79010407355125</v>
       </c>
       <c r="J38" t="n">
-        <v>78.79010407355116</v>
+        <v>177.6601314239651</v>
       </c>
       <c r="K38" t="n">
-        <v>352.9155291077303</v>
+        <v>532.2672758089698</v>
       </c>
       <c r="L38" t="n">
-        <v>428.4718433211497</v>
+        <v>587.7594771226071</v>
       </c>
       <c r="M38" t="n">
-        <v>516.9187645744648</v>
+        <v>676.2063983759223</v>
       </c>
       <c r="N38" t="n">
-        <v>871.5259089594695</v>
+        <v>766.7793419616939</v>
       </c>
       <c r="O38" t="n">
-        <v>957.2131752539448</v>
+        <v>1121.386486346699</v>
       </c>
       <c r="P38" t="n">
-        <v>1031.331276126317</v>
+        <v>1121.386486346699</v>
       </c>
       <c r="Q38" t="n">
-        <v>1309.326332401973</v>
+        <v>1289.172862425304</v>
       </c>
       <c r="R38" t="n">
-        <v>1364.669194558244</v>
+        <v>1409.574980255828</v>
       </c>
       <c r="S38" t="n">
         <v>1409.574980255828</v>
@@ -7217,7 +7217,7 @@
         <v>1110.054342099453</v>
       </c>
       <c r="Y38" t="n">
-        <v>967.0263764236241</v>
+        <v>967.0263764236245</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="C39" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="D39" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="E39" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="F39" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="G39" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="H39" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="I39" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="J39" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="K39" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="L39" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="M39" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="N39" t="n">
-        <v>28.65512277858623</v>
+        <v>35.78111320680463</v>
       </c>
       <c r="O39" t="n">
-        <v>28.65512277858623</v>
+        <v>35.78111320680463</v>
       </c>
       <c r="P39" t="n">
-        <v>35.7811132068047</v>
+        <v>35.78111320680463</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.7811132068047</v>
+        <v>35.78111320680463</v>
       </c>
       <c r="R39" t="n">
-        <v>35.7811132068047</v>
+        <v>35.78111320680463</v>
       </c>
       <c r="S39" t="n">
-        <v>35.7811132068047</v>
+        <v>35.78111320680463</v>
       </c>
       <c r="T39" t="n">
-        <v>35.7811132068047</v>
+        <v>35.78111320680463</v>
       </c>
       <c r="U39" t="n">
-        <v>35.7811132068047</v>
+        <v>35.78111320680463</v>
       </c>
       <c r="V39" t="n">
-        <v>35.7811132068047</v>
+        <v>35.78111320680463</v>
       </c>
       <c r="W39" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="X39" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="Y39" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.65512277858623</v>
+        <v>92.81531250908188</v>
       </c>
       <c r="C40" t="n">
-        <v>28.65512277858623</v>
+        <v>92.81531250908188</v>
       </c>
       <c r="D40" t="n">
-        <v>28.65512277858623</v>
+        <v>92.81531250908188</v>
       </c>
       <c r="E40" t="n">
-        <v>28.65512277858623</v>
+        <v>92.81531250908188</v>
       </c>
       <c r="F40" t="n">
-        <v>120.6232601659389</v>
+        <v>92.81531250908188</v>
       </c>
       <c r="G40" t="n">
-        <v>120.6232601659389</v>
+        <v>92.81531250908188</v>
       </c>
       <c r="H40" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="I40" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="J40" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="K40" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="L40" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="M40" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="N40" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="O40" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="P40" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="R40" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="S40" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="T40" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="U40" t="n">
-        <v>78.53404842146742</v>
+        <v>78.53404842146725</v>
       </c>
       <c r="V40" t="n">
-        <v>70.9609265155637</v>
+        <v>70.96092651556361</v>
       </c>
       <c r="W40" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="X40" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="Y40" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
     </row>
     <row r="41">
@@ -7385,58 +7385,58 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>827.5379026594854</v>
+        <v>827.5379026594858</v>
       </c>
       <c r="C41" t="n">
-        <v>705.6867520190568</v>
+        <v>705.6867520190574</v>
       </c>
       <c r="D41" t="n">
-        <v>594.5324197122894</v>
+        <v>594.53241971229</v>
       </c>
       <c r="E41" t="n">
-        <v>455.8555334140283</v>
+        <v>455.8555334140289</v>
       </c>
       <c r="F41" t="n">
-        <v>291.9809949244038</v>
+        <v>291.9809949244045</v>
       </c>
       <c r="G41" t="n">
-        <v>120.0263557085883</v>
+        <v>120.0263557085882</v>
       </c>
       <c r="H41" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="I41" t="n">
-        <v>28.65512277858623</v>
+        <v>78.79010407355116</v>
       </c>
       <c r="J41" t="n">
-        <v>127.525150129</v>
+        <v>177.660131423965</v>
       </c>
       <c r="K41" t="n">
-        <v>127.525150129</v>
+        <v>322.638434754692</v>
       </c>
       <c r="L41" t="n">
-        <v>203.0814643424193</v>
+        <v>398.1947489681114</v>
       </c>
       <c r="M41" t="n">
-        <v>557.688608727424</v>
+        <v>486.6416702214265</v>
       </c>
       <c r="N41" t="n">
-        <v>648.2615523131955</v>
+        <v>577.214613807198</v>
       </c>
       <c r="O41" t="n">
-        <v>733.9488186076708</v>
+        <v>931.8217581922027</v>
       </c>
       <c r="P41" t="n">
-        <v>989.453179125548</v>
+        <v>1286.428902577207</v>
       </c>
       <c r="Q41" t="n">
-        <v>1267.448235401204</v>
+        <v>1354.232118099557</v>
       </c>
       <c r="R41" t="n">
-        <v>1387.850353231727</v>
+        <v>1409.574980255828</v>
       </c>
       <c r="S41" t="n">
-        <v>1432.756138929312</v>
+        <v>1409.574980255828</v>
       </c>
       <c r="T41" t="n">
         <v>1432.756138929312</v>
@@ -7448,13 +7448,13 @@
         <v>1342.066023030681</v>
       </c>
       <c r="W41" t="n">
-        <v>1236.408734060549</v>
+        <v>1236.40873406055</v>
       </c>
       <c r="X41" t="n">
         <v>1110.054342099453</v>
       </c>
       <c r="Y41" t="n">
-        <v>967.0263764236241</v>
+        <v>967.0263764236245</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="C42" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="D42" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="E42" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="F42" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="G42" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="H42" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="I42" t="n">
-        <v>35.78111320680476</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="J42" t="n">
-        <v>35.78111320680476</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="K42" t="n">
-        <v>35.78111320680476</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="L42" t="n">
-        <v>35.78111320680476</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="M42" t="n">
-        <v>35.78111320680476</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="N42" t="n">
-        <v>35.78111320680476</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="O42" t="n">
-        <v>35.78111320680476</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="P42" t="n">
-        <v>35.78111320680476</v>
+        <v>35.78111320680471</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.78111320680476</v>
+        <v>35.78111320680471</v>
       </c>
       <c r="R42" t="n">
-        <v>35.78111320680476</v>
+        <v>35.78111320680471</v>
       </c>
       <c r="S42" t="n">
-        <v>35.78111320680476</v>
+        <v>35.78111320680471</v>
       </c>
       <c r="T42" t="n">
-        <v>35.78111320680476</v>
+        <v>35.78111320680471</v>
       </c>
       <c r="U42" t="n">
-        <v>35.78111320680476</v>
+        <v>35.78111320680471</v>
       </c>
       <c r="V42" t="n">
-        <v>35.78111320680476</v>
+        <v>35.78111320680471</v>
       </c>
       <c r="W42" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="X42" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="Y42" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="C43" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="D43" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="E43" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="F43" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="G43" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="H43" t="n">
-        <v>28.65512277858623</v>
+        <v>111.9315331204686</v>
       </c>
       <c r="I43" t="n">
-        <v>28.65512277858623</v>
+        <v>111.9315331204686</v>
       </c>
       <c r="J43" t="n">
-        <v>120.623260165939</v>
+        <v>111.9315331204686</v>
       </c>
       <c r="K43" t="n">
-        <v>120.623260165939</v>
+        <v>111.9315331204686</v>
       </c>
       <c r="L43" t="n">
-        <v>120.623260165939</v>
+        <v>111.9315331204686</v>
       </c>
       <c r="M43" t="n">
-        <v>120.623260165939</v>
+        <v>111.9315331204686</v>
       </c>
       <c r="N43" t="n">
-        <v>120.623260165939</v>
+        <v>120.6232601659389</v>
       </c>
       <c r="O43" t="n">
-        <v>120.623260165939</v>
+        <v>120.6232601659389</v>
       </c>
       <c r="P43" t="n">
-        <v>120.623260165939</v>
+        <v>120.6232601659389</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.623260165939</v>
+        <v>120.6232601659389</v>
       </c>
       <c r="R43" t="n">
-        <v>120.623260165939</v>
+        <v>120.6232601659389</v>
       </c>
       <c r="S43" t="n">
-        <v>120.623260165939</v>
+        <v>120.6232601659389</v>
       </c>
       <c r="T43" t="n">
-        <v>120.623260165939</v>
+        <v>120.6232601659389</v>
       </c>
       <c r="U43" t="n">
-        <v>78.53404842146753</v>
+        <v>78.53404842146742</v>
       </c>
       <c r="V43" t="n">
-        <v>70.96092651556376</v>
+        <v>70.9609265155637</v>
       </c>
       <c r="W43" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="X43" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>827.537902659485</v>
+        <v>827.5379026594854</v>
       </c>
       <c r="C44" t="n">
-        <v>705.6867520190574</v>
+        <v>705.6867520190569</v>
       </c>
       <c r="D44" t="n">
-        <v>594.53241971229</v>
+        <v>594.5324197122898</v>
       </c>
       <c r="E44" t="n">
         <v>455.8555334140289</v>
       </c>
       <c r="F44" t="n">
-        <v>291.9809949244044</v>
+        <v>291.9809949244045</v>
       </c>
       <c r="G44" t="n">
-        <v>120.0263557085883</v>
+        <v>120.0263557085882</v>
       </c>
       <c r="H44" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="I44" t="n">
-        <v>78.79010407355111</v>
+        <v>78.79010407355116</v>
       </c>
       <c r="J44" t="n">
-        <v>345.0657804443179</v>
+        <v>345.065780444318</v>
       </c>
       <c r="K44" t="n">
-        <v>365.4679613382657</v>
+        <v>423.1928913516647</v>
       </c>
       <c r="L44" t="n">
-        <v>441.024275551685</v>
+        <v>498.7492055650841</v>
       </c>
       <c r="M44" t="n">
-        <v>732.2957448522908</v>
+        <v>853.3563499500888</v>
       </c>
       <c r="N44" t="n">
-        <v>822.8686884380622</v>
+        <v>943.9292935358603</v>
       </c>
       <c r="O44" t="n">
-        <v>908.5559547325375</v>
+        <v>943.9292935358603</v>
       </c>
       <c r="P44" t="n">
-        <v>1241.523116879623</v>
+        <v>1018.047394408233</v>
       </c>
       <c r="Q44" t="n">
-        <v>1309.326332401973</v>
+        <v>1244.26707672772</v>
       </c>
       <c r="R44" t="n">
         <v>1364.669194558244</v>
@@ -7688,10 +7688,10 @@
         <v>1236.408734060549</v>
       </c>
       <c r="X44" t="n">
-        <v>1110.054342099452</v>
+        <v>1110.054342099453</v>
       </c>
       <c r="Y44" t="n">
-        <v>967.0263764236237</v>
+        <v>967.0263764236241</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="C45" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="D45" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="E45" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="F45" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="G45" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="H45" t="n">
-        <v>35.78111320680476</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="I45" t="n">
-        <v>35.78111320680476</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="J45" t="n">
-        <v>35.78111320680476</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="K45" t="n">
-        <v>35.78111320680476</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="L45" t="n">
-        <v>35.78111320680476</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="M45" t="n">
-        <v>35.78111320680476</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="N45" t="n">
-        <v>35.78111320680476</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="O45" t="n">
-        <v>35.78111320680476</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="P45" t="n">
-        <v>35.78111320680476</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.78111320680476</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="R45" t="n">
-        <v>35.78111320680476</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="S45" t="n">
-        <v>35.78111320680476</v>
+        <v>35.78111320680471</v>
       </c>
       <c r="T45" t="n">
-        <v>35.78111320680476</v>
+        <v>35.78111320680471</v>
       </c>
       <c r="U45" t="n">
-        <v>35.78111320680476</v>
+        <v>35.78111320680471</v>
       </c>
       <c r="V45" t="n">
-        <v>35.78111320680476</v>
+        <v>35.78111320680471</v>
       </c>
       <c r="W45" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="X45" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="Y45" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="C46" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="D46" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="E46" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="F46" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="G46" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="H46" t="n">
-        <v>28.65512277858623</v>
+        <v>111.9315331204686</v>
       </c>
       <c r="I46" t="n">
-        <v>120.623260165939</v>
+        <v>111.9315331204686</v>
       </c>
       <c r="J46" t="n">
-        <v>120.623260165939</v>
+        <v>111.9315331204686</v>
       </c>
       <c r="K46" t="n">
-        <v>120.623260165939</v>
+        <v>111.9315331204686</v>
       </c>
       <c r="L46" t="n">
-        <v>120.623260165939</v>
+        <v>111.9315331204686</v>
       </c>
       <c r="M46" t="n">
-        <v>120.623260165939</v>
+        <v>111.9315331204686</v>
       </c>
       <c r="N46" t="n">
-        <v>120.623260165939</v>
+        <v>111.9315331204686</v>
       </c>
       <c r="O46" t="n">
-        <v>120.623260165939</v>
+        <v>111.9315331204686</v>
       </c>
       <c r="P46" t="n">
-        <v>120.623260165939</v>
+        <v>111.9315331204686</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.623260165939</v>
+        <v>111.9315331204686</v>
       </c>
       <c r="R46" t="n">
-        <v>120.623260165939</v>
+        <v>111.9315331204686</v>
       </c>
       <c r="S46" t="n">
-        <v>120.623260165939</v>
+        <v>111.9315331204686</v>
       </c>
       <c r="T46" t="n">
-        <v>120.623260165939</v>
+        <v>120.6232601659389</v>
       </c>
       <c r="U46" t="n">
-        <v>78.53404842146753</v>
+        <v>78.53404842146742</v>
       </c>
       <c r="V46" t="n">
-        <v>70.96092651556376</v>
+        <v>70.9609265155637</v>
       </c>
       <c r="W46" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="X46" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858624</v>
       </c>
     </row>
   </sheetData>
@@ -8693,22 +8693,22 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>140.5115992662811</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>155.2999281386852</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>158.0874584001396</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>169.7734840790314</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.383315143048918</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8845,7 +8845,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8854,16 +8854,16 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>98.34817151022013</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>111.3587261364775</v>
       </c>
       <c r="P13" t="n">
-        <v>135.0065633140411</v>
+        <v>114.5411443216187</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>3.055662819233333</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8933,22 +8933,22 @@
         <v>168.3207433304991</v>
       </c>
       <c r="M14" t="n">
-        <v>13.58405281630276</v>
+        <v>155.2999281386852</v>
       </c>
       <c r="N14" t="n">
-        <v>46.63852330250717</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>16.37158307775704</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>169.7734840790314</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>159.8397978291293</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9875,28 +9875,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>377.6883987243454</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>364.6675835325312</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>334.3698144098074</v>
       </c>
       <c r="P26" t="n">
-        <v>205.1361653038561</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>176.152156149761</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>88.90283864918121</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>88.18866638734514</v>
+        <v>88.18866638734512</v>
       </c>
       <c r="P27" t="n">
-        <v>90.30752936669646</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10039,19 +10039,19 @@
         <v>106.3821278759461</v>
       </c>
       <c r="M28" t="n">
-        <v>108.8738430064009</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>98.34817151022011</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>114.5411443216187</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>37.71016825788283</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>144.7715381416158</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>36.60650335879193</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>364.6675835325316</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>250.1545724271884</v>
       </c>
       <c r="O29" t="n">
-        <v>367.4551137939859</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>126.9311232642783</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10185,16 +10185,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>105.2328625520064</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>88.90283864918122</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>88.18866638734512</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>90.30752936669646</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>158.4878631656135</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10270,22 +10270,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>106.7396511863337</v>
       </c>
       <c r="L31" t="n">
-        <v>106.3821278759461</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>11.1323894416834</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>114.5411443216187</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>40.97885483460681</v>
+        <v>25.70895217340905</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>364.6675835325315</v>
+        <v>364.6675835325312</v>
       </c>
       <c r="N32" t="n">
-        <v>362.5200862270199</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>67.88567464145979</v>
+        <v>367.4551137939856</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>269.7689054040081</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>176.152156149761</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,7 +10431,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>88.90283864918122</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10504,28 +10504,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7396511863337</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3821278759461</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>98.34817151022013</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>111.3587261364775</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>114.5411443216187</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,28 +10583,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>125.1739685366047</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>168.1564059399271</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>266.7012129285183</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>271.6362404954838</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>283.3222661743757</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10759,7 +10759,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>114.5411443216187</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>197.9780950776087</v>
+        <v>279.2727610885434</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10832,19 +10832,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>395.464250743929</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>271.6362404954841</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>100.9930914709653</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10911,19 +10911,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>71.8671794601849</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>90.30752936669646</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10981,25 +10981,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>106.7396511863337</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>106.3821278759461</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>111.3587261364776</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>114.5411443216187</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11060,28 +11060,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>67.5264569933135</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>306.6565645201522</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>344.1043146669759</v>
       </c>
       <c r="P41" t="n">
-        <v>183.2184440863686</v>
+        <v>283.3222661743762</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11221,16 +11221,16 @@
         <v>106.7396511863337</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>106.3821278759461</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>107.1276937783719</v>
       </c>
       <c r="O43" t="n">
-        <v>111.3587261364776</v>
+        <v>111.3587261364775</v>
       </c>
       <c r="P43" t="n">
         <v>114.5411443216187</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>268.8487102340299</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11312,13 +11312,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>261.4636982572858</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>160.0166331284219</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>100.9154559462058</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,10 +11394,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>9.901519104470715</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11455,22 +11455,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>106.7396511863337</v>
       </c>
       <c r="L46" t="n">
         <v>106.3821278759461</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>111.3587261364775</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>114.5411443216187</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>104.8413478585364</v>
+        <v>168.6144048339938</v>
       </c>
       <c r="C11" t="n">
         <v>151.1534549415208</v>
@@ -23264,16 +23264,16 @@
         <v>140.5636047911962</v>
       </c>
       <c r="E11" t="n">
-        <v>167.810933242775</v>
+        <v>95.40737173567078</v>
       </c>
       <c r="F11" t="n">
         <v>192.7566089122247</v>
       </c>
       <c r="G11" t="n">
-        <v>128.3523471240505</v>
+        <v>200.7559086311548</v>
       </c>
       <c r="H11" t="n">
-        <v>120.9783364081985</v>
+        <v>48.57477490109426</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.105504016099173</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>37.19202471399027</v>
@@ -23321,7 +23321,7 @@
         <v>135.1215318879263</v>
       </c>
       <c r="X11" t="n">
-        <v>83.20810234187803</v>
+        <v>98.94411088962411</v>
       </c>
       <c r="Y11" t="n">
         <v>172.1185018265668</v>
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>168.6144048339938</v>
+        <v>96.21084332688957</v>
       </c>
       <c r="C14" t="n">
-        <v>151.1534549415208</v>
+        <v>78.74989343441655</v>
       </c>
       <c r="D14" t="n">
-        <v>140.5636047911962</v>
+        <v>68.16004328409196</v>
       </c>
       <c r="E14" t="n">
         <v>167.810933242775</v>
       </c>
       <c r="F14" t="n">
-        <v>128.9835519367673</v>
+        <v>192.7566089122247</v>
       </c>
       <c r="G14" t="n">
-        <v>128.3523471240505</v>
+        <v>200.7559086311548</v>
       </c>
       <c r="H14" t="n">
-        <v>48.57477490109426</v>
+        <v>120.9783364081985</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,13 +23549,13 @@
         <v>7.105504016099173</v>
       </c>
       <c r="U14" t="n">
-        <v>37.19202471399026</v>
+        <v>37.19202471399027</v>
       </c>
       <c r="V14" t="n">
-        <v>113.6328216406482</v>
+        <v>49.85976466519077</v>
       </c>
       <c r="W14" t="n">
-        <v>62.71797038082201</v>
+        <v>135.1215318879263</v>
       </c>
       <c r="X14" t="n">
         <v>155.6116638489823</v>
@@ -25865,13 +25865,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>1.094235813070554e-12</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>948826.6337015611</v>
+        <v>948826.633701561</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>948826.6337015611</v>
+        <v>948826.6337015609</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>907473.264160016</v>
+        <v>907473.2641600161</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>907473.2641600161</v>
+        <v>907473.264160016</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>907473.2641600161</v>
+        <v>907473.264160016</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26317,43 @@
         <v>573493.4371019268</v>
       </c>
       <c r="D2" t="n">
-        <v>573493.4371019269</v>
+        <v>573493.437101927</v>
       </c>
       <c r="E2" t="n">
-        <v>492128.1524821776</v>
+        <v>492128.1524821775</v>
       </c>
       <c r="F2" t="n">
         <v>492128.1524821775</v>
       </c>
       <c r="G2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049981</v>
       </c>
       <c r="H2" t="n">
         <v>574729.2389049982</v>
       </c>
       <c r="I2" t="n">
+        <v>574729.2389049981</v>
+      </c>
+      <c r="J2" t="n">
+        <v>574729.2389049984</v>
+      </c>
+      <c r="K2" t="n">
+        <v>574729.2389049988</v>
+      </c>
+      <c r="L2" t="n">
+        <v>574729.2389049989</v>
+      </c>
+      <c r="M2" t="n">
         <v>574729.2389049982</v>
       </c>
-      <c r="J2" t="n">
-        <v>574729.2389049982</v>
-      </c>
-      <c r="K2" t="n">
-        <v>574729.2389049986</v>
-      </c>
-      <c r="L2" t="n">
-        <v>574729.2389049983</v>
-      </c>
-      <c r="M2" t="n">
-        <v>574729.2389049975</v>
-      </c>
       <c r="N2" t="n">
-        <v>574729.2389049979</v>
+        <v>574729.2389049974</v>
       </c>
       <c r="O2" t="n">
         <v>574729.2389049978</v>
       </c>
       <c r="P2" t="n">
-        <v>574729.2389049976</v>
+        <v>574729.2389049974</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278326.4646668791</v>
+        <v>278326.4646668792</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>106979.8107928507</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>106979.8107928508</v>
+        <v>106979.8107928507</v>
       </c>
       <c r="M3" t="n">
-        <v>18732.24943311796</v>
+        <v>18732.249433118</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>70000.14188361791</v>
+        <v>70000.14188361797</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26436,28 +26436,28 @@
         <v>431842.1671902813</v>
       </c>
       <c r="I4" t="n">
-        <v>431842.1671902814</v>
+        <v>431842.1671902813</v>
       </c>
       <c r="J4" t="n">
         <v>440899.9009590467</v>
       </c>
       <c r="K4" t="n">
-        <v>440899.9009590468</v>
+        <v>440899.9009590467</v>
       </c>
       <c r="L4" t="n">
         <v>440899.9009590468</v>
       </c>
       <c r="M4" t="n">
+        <v>436970.6596854209</v>
+      </c>
+      <c r="N4" t="n">
         <v>436970.659685421</v>
-      </c>
-      <c r="N4" t="n">
-        <v>436970.6596854209</v>
       </c>
       <c r="O4" t="n">
         <v>436970.6596854209</v>
       </c>
       <c r="P4" t="n">
-        <v>436970.659685421</v>
+        <v>436970.6596854209</v>
       </c>
     </row>
     <row r="5">
@@ -26485,10 +26485,10 @@
         <v>35962.69087988507</v>
       </c>
       <c r="H5" t="n">
-        <v>35962.69087988508</v>
+        <v>35962.69087988507</v>
       </c>
       <c r="I5" t="n">
-        <v>35962.69087988508</v>
+        <v>35962.69087988507</v>
       </c>
       <c r="J5" t="n">
         <v>47095.82966680983</v>
@@ -26497,13 +26497,13 @@
         <v>47095.82966680983</v>
       </c>
       <c r="L5" t="n">
-        <v>47095.82966680984</v>
+        <v>47095.82966680983</v>
       </c>
       <c r="M5" t="n">
         <v>44662.19497416889</v>
       </c>
       <c r="N5" t="n">
-        <v>44662.19497416889</v>
+        <v>44662.1949741689</v>
       </c>
       <c r="O5" t="n">
         <v>44662.19497416889</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>72249.87717019554</v>
+        <v>72245.46359232743</v>
       </c>
       <c r="C6" t="n">
-        <v>72249.87717019554</v>
+        <v>72245.46359232743</v>
       </c>
       <c r="D6" t="n">
-        <v>72249.87717019566</v>
+        <v>72245.46359232767</v>
       </c>
       <c r="E6" t="n">
-        <v>-177603.3062591244</v>
+        <v>-177898.3101392061</v>
       </c>
       <c r="F6" t="n">
-        <v>100723.1584077546</v>
+        <v>100428.1545276731</v>
       </c>
       <c r="G6" t="n">
-        <v>-55.42995801878715</v>
+        <v>-55.42995801901998</v>
       </c>
       <c r="H6" t="n">
         <v>106924.3808348318</v>
@@ -26543,25 +26543,25 @@
         <v>106924.3808348317</v>
       </c>
       <c r="J6" t="n">
-        <v>-76984.64540798154</v>
+        <v>-76984.6454079813</v>
       </c>
       <c r="K6" t="n">
-        <v>86733.50827914201</v>
+        <v>86733.5082791422</v>
       </c>
       <c r="L6" t="n">
-        <v>-20246.30251370908</v>
+        <v>-20246.30251370843</v>
       </c>
       <c r="M6" t="n">
-        <v>74364.13481228969</v>
+        <v>74364.13481229033</v>
       </c>
       <c r="N6" t="n">
-        <v>93096.38424540813</v>
+        <v>93096.38424540748</v>
       </c>
       <c r="O6" t="n">
-        <v>23096.24236179011</v>
+        <v>23096.24236179004</v>
       </c>
       <c r="P6" t="n">
-        <v>93096.38424540772</v>
+        <v>93096.38424540753</v>
       </c>
     </row>
   </sheetData>
@@ -26701,25 +26701,25 @@
         <v>347.8442003205501</v>
       </c>
       <c r="H2" t="n">
-        <v>347.8442003205502</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="I2" t="n">
-        <v>347.8442003205502</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="J2" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="K2" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="L2" t="n">
         <v>221.2249408455859</v>
       </c>
       <c r="M2" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="N2" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="O2" t="n">
         <v>244.6402526369833</v>
@@ -26808,28 +26808,28 @@
         <v>72.40356150710426</v>
       </c>
       <c r="I4" t="n">
-        <v>72.40356150710426</v>
+        <v>72.40356150710431</v>
       </c>
       <c r="J4" t="n">
-        <v>430.5925962394322</v>
+        <v>430.5925962394319</v>
       </c>
       <c r="K4" t="n">
-        <v>430.5925962394322</v>
+        <v>430.5925962394319</v>
       </c>
       <c r="L4" t="n">
-        <v>430.5925962394322</v>
+        <v>430.5925962394319</v>
       </c>
       <c r="M4" t="n">
-        <v>358.1890347323279</v>
+        <v>358.1890347323277</v>
       </c>
       <c r="N4" t="n">
-        <v>358.1890347323279</v>
+        <v>358.189034732328</v>
       </c>
       <c r="O4" t="n">
-        <v>358.1890347323279</v>
+        <v>358.189034732328</v>
       </c>
       <c r="P4" t="n">
-        <v>358.1890347323279</v>
+        <v>358.189034732328</v>
       </c>
     </row>
   </sheetData>
@@ -26923,28 +26923,28 @@
         <v>133.7247634910634</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>87.50017735452244</v>
+        <v>87.50017735452255</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>133.7247634910634</v>
+        <v>133.7247634910633</v>
       </c>
       <c r="M2" t="n">
-        <v>23.41531179139744</v>
+        <v>23.4153117913975</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>87.50017735452238</v>
+        <v>87.50017735452246</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>358.1890347323279</v>
+        <v>358.1890347323276</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>133.7247634910634</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>87.50017735452244</v>
+        <v>87.50017735452255</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28114,31 +28114,31 @@
         <v>214.1194368294867</v>
       </c>
       <c r="K11" t="n">
+        <v>209.7605749247317</v>
+      </c>
+      <c r="L11" t="n">
+        <v>27.80914406421802</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>153.1524308331736</v>
+      </c>
+      <c r="O11" t="n">
         <v>214.1194368294867</v>
       </c>
-      <c r="L11" t="n">
-        <v>197.3591422831705</v>
-      </c>
-      <c r="M11" t="n">
+      <c r="P11" t="n">
         <v>214.1194368294867</v>
       </c>
-      <c r="N11" t="n">
+      <c r="Q11" t="n">
         <v>214.1194368294867</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>166.7688410067121</v>
       </c>
       <c r="R11" t="n">
         <v>123.0219517980703</v>
       </c>
       <c r="S11" t="n">
-        <v>199.280873144474</v>
+        <v>214.1194368294867</v>
       </c>
       <c r="T11" t="n">
         <v>214.1194368294867</v>
@@ -28196,19 +28196,19 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L12" t="n">
-        <v>88.90283864918122</v>
+        <v>158.3484028782816</v>
       </c>
       <c r="M12" t="n">
-        <v>84.19302733439824</v>
+        <v>84.19302733439822</v>
       </c>
       <c r="N12" t="n">
-        <v>71.8671794601849</v>
+        <v>71.86717946018487</v>
       </c>
       <c r="O12" t="n">
-        <v>88.18866638734514</v>
+        <v>88.18866638734512</v>
       </c>
       <c r="P12" t="n">
-        <v>159.7530935957968</v>
+        <v>90.30752936669646</v>
       </c>
       <c r="Q12" t="n">
         <v>110.7916225242058</v>
@@ -28245,10 +28245,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>213.5803996575784</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>214.1194368294867</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -28269,7 +28269,7 @@
         <v>149.6851312728186</v>
       </c>
       <c r="J13" t="n">
-        <v>79.80504541274973</v>
+        <v>113.4412867354731</v>
       </c>
       <c r="K13" t="n">
         <v>106.7396511863337</v>
@@ -28278,19 +28278,19 @@
         <v>178.7856893830503</v>
       </c>
       <c r="M13" t="n">
-        <v>181.2774045135051</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>98.34817151022011</v>
       </c>
       <c r="O13" t="n">
-        <v>111.3587261364776</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>192.8394944326188</v>
+        <v>135.4516218226007</v>
       </c>
       <c r="R13" t="n">
         <v>168.6732614754589</v>
@@ -28345,34 +28345,34 @@
         <v>214.1194368294867</v>
       </c>
       <c r="I14" t="n">
-        <v>214.1194368294867</v>
+        <v>201.5994132931571</v>
       </c>
       <c r="J14" t="n">
         <v>214.1194368294867</v>
       </c>
       <c r="K14" t="n">
-        <v>177.1142839561052</v>
+        <v>214.1194368294867</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>214.1194368294867</v>
-      </c>
-      <c r="N14" t="n">
-        <v>106.5139075306665</v>
       </c>
       <c r="O14" t="n">
         <v>214.1194368294867</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>214.1194368294867</v>
       </c>
       <c r="Q14" t="n">
-        <v>214.1194368294867</v>
+        <v>16.31235832063172</v>
       </c>
       <c r="R14" t="n">
-        <v>123.0219517980703</v>
+        <v>188.7383716710528</v>
       </c>
       <c r="S14" t="n">
         <v>199.280873144474</v>
@@ -28427,28 +28427,28 @@
         <v>91.64914299614301</v>
       </c>
       <c r="J15" t="n">
-        <v>174.6784267811068</v>
+        <v>105.2328625520064</v>
       </c>
       <c r="K15" t="n">
         <v>100.9154559462058</v>
       </c>
       <c r="L15" t="n">
-        <v>88.90283864918122</v>
+        <v>88.90283864918121</v>
       </c>
       <c r="M15" t="n">
-        <v>84.19302733439824</v>
+        <v>84.19302733439822</v>
       </c>
       <c r="N15" t="n">
-        <v>71.8671794601849</v>
+        <v>71.86717946018487</v>
       </c>
       <c r="O15" t="n">
-        <v>88.18866638734514</v>
+        <v>88.18866638734512</v>
       </c>
       <c r="P15" t="n">
         <v>90.30752936669646</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.7916225242058</v>
+        <v>180.2371867533061</v>
       </c>
       <c r="R15" t="n">
         <v>131.4816003936965</v>
@@ -28488,7 +28488,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>172.8719942242278</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -28500,31 +28500,31 @@
         <v>167.7992659963099</v>
       </c>
       <c r="H16" t="n">
-        <v>214.1194368294867</v>
+        <v>160.5226664330617</v>
       </c>
       <c r="I16" t="n">
         <v>149.6851312728186</v>
       </c>
       <c r="J16" t="n">
-        <v>113.4412867354731</v>
+        <v>118.8910168308093</v>
       </c>
       <c r="K16" t="n">
         <v>106.7396511863337</v>
       </c>
       <c r="L16" t="n">
-        <v>106.3821278759461</v>
+        <v>178.7856893830503</v>
       </c>
       <c r="M16" t="n">
         <v>181.2774045135051</v>
       </c>
       <c r="N16" t="n">
-        <v>98.34817151022013</v>
+        <v>98.34817151022011</v>
       </c>
       <c r="O16" t="n">
-        <v>183.7622876435818</v>
+        <v>111.3587261364775</v>
       </c>
       <c r="P16" t="n">
-        <v>114.5411443216187</v>
+        <v>186.944705828723</v>
       </c>
       <c r="Q16" t="n">
         <v>135.4516218226007</v>
@@ -28588,7 +28588,7 @@
         <v>217.1750996487201</v>
       </c>
       <c r="K17" t="n">
-        <v>238.1275405003031</v>
+        <v>165.7239789931988</v>
       </c>
       <c r="L17" t="n">
         <v>168.3207433304991</v>
@@ -28597,7 +28597,7 @@
         <v>155.2999281386852</v>
       </c>
       <c r="N17" t="n">
-        <v>153.1524308331737</v>
+        <v>225.5559923402779</v>
       </c>
       <c r="O17" t="n">
         <v>158.0874584001396</v>
@@ -28606,10 +28606,10 @@
         <v>169.7734840790314</v>
       </c>
       <c r="Q17" t="n">
-        <v>248.5557176568653</v>
+        <v>245.6303212323358</v>
       </c>
       <c r="R17" t="n">
-        <v>258.2165367536276</v>
+        <v>188.7383716710528</v>
       </c>
       <c r="S17" t="n">
         <v>199.280873144474</v>
@@ -28618,7 +28618,7 @@
         <v>221.2249408455859</v>
       </c>
       <c r="U17" t="n">
-        <v>251.311461543477</v>
+        <v>323.7150230505813</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -28670,16 +28670,16 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L18" t="n">
-        <v>88.90283864918122</v>
+        <v>88.90283864918121</v>
       </c>
       <c r="M18" t="n">
-        <v>84.19302733439824</v>
+        <v>84.19302733439822</v>
       </c>
       <c r="N18" t="n">
-        <v>71.8671794601849</v>
+        <v>71.86717946018487</v>
       </c>
       <c r="O18" t="n">
-        <v>88.18866638734514</v>
+        <v>88.18866638734512</v>
       </c>
       <c r="P18" t="n">
         <v>90.30752936669646</v>
@@ -28755,10 +28755,10 @@
         <v>108.8738430064009</v>
       </c>
       <c r="N19" t="n">
-        <v>98.34817151022013</v>
+        <v>98.34817151022011</v>
       </c>
       <c r="O19" t="n">
-        <v>111.3587261364776</v>
+        <v>111.3587261364775</v>
       </c>
       <c r="P19" t="n">
         <v>114.5411443216187</v>
@@ -28798,22 +28798,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>347.8442003205502</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="C20" t="n">
-        <v>347.8442003205502</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="D20" t="n">
-        <v>347.8442003205502</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="E20" t="n">
-        <v>347.8442003205502</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="F20" t="n">
-        <v>347.8442003205502</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="G20" t="n">
-        <v>347.8442003205502</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="H20" t="n">
         <v>335.0977732376853</v>
@@ -28825,7 +28825,7 @@
         <v>144.7715381416158</v>
       </c>
       <c r="K20" t="n">
-        <v>235.2021440757737</v>
+        <v>238.1275405003031</v>
       </c>
       <c r="L20" t="n">
         <v>168.3207433304991</v>
@@ -28834,10 +28834,10 @@
         <v>155.2999281386852</v>
       </c>
       <c r="N20" t="n">
-        <v>225.555992340278</v>
+        <v>153.1524308331736</v>
       </c>
       <c r="O20" t="n">
-        <v>158.0874584001396</v>
+        <v>227.5656234827144</v>
       </c>
       <c r="P20" t="n">
         <v>242.1770455861357</v>
@@ -28846,13 +28846,13 @@
         <v>176.152156149761</v>
       </c>
       <c r="R20" t="n">
-        <v>188.7383716710528</v>
+        <v>261.141933178157</v>
       </c>
       <c r="S20" t="n">
         <v>199.280873144474</v>
       </c>
       <c r="T20" t="n">
-        <v>293.6285023526902</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="U20" t="n">
         <v>251.311461543477</v>
@@ -28861,13 +28861,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>347.8442003205502</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="X20" t="n">
-        <v>347.8442003205502</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="Y20" t="n">
-        <v>347.8442003205502</v>
+        <v>347.8442003205501</v>
       </c>
     </row>
     <row r="21">
@@ -28907,16 +28907,16 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L21" t="n">
-        <v>88.90283864918122</v>
+        <v>88.90283864918121</v>
       </c>
       <c r="M21" t="n">
-        <v>84.19302733439824</v>
+        <v>84.19302733439822</v>
       </c>
       <c r="N21" t="n">
-        <v>71.8671794601849</v>
+        <v>71.86717946018487</v>
       </c>
       <c r="O21" t="n">
-        <v>88.18866638734514</v>
+        <v>88.18866638734512</v>
       </c>
       <c r="P21" t="n">
         <v>90.30752936669646</v>
@@ -28992,10 +28992,10 @@
         <v>108.8738430064009</v>
       </c>
       <c r="N22" t="n">
-        <v>98.34817151022013</v>
+        <v>98.34817151022011</v>
       </c>
       <c r="O22" t="n">
-        <v>111.3587261364776</v>
+        <v>111.3587261364775</v>
       </c>
       <c r="P22" t="n">
         <v>114.5411443216187</v>
@@ -29035,49 +29035,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>347.8442003205502</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="C23" t="n">
-        <v>347.8442003205502</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="D23" t="n">
-        <v>347.8442003205502</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="E23" t="n">
-        <v>347.8442003205502</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="F23" t="n">
-        <v>347.8442003205502</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="G23" t="n">
-        <v>347.8442003205502</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="H23" t="n">
-        <v>347.8442003205502</v>
+        <v>335.0977732376853</v>
       </c>
       <c r="I23" t="n">
         <v>193.998857389544</v>
       </c>
       <c r="J23" t="n">
-        <v>144.7715381416158</v>
+        <v>217.1750996487201</v>
       </c>
       <c r="K23" t="n">
-        <v>165.7239789931989</v>
+        <v>165.7239789931988</v>
       </c>
       <c r="L23" t="n">
-        <v>225.052481330209</v>
+        <v>168.3207433304991</v>
       </c>
       <c r="M23" t="n">
-        <v>227.7034896457895</v>
+        <v>204.6861513708449</v>
       </c>
       <c r="N23" t="n">
-        <v>153.1524308331737</v>
+        <v>153.1524308331736</v>
       </c>
       <c r="O23" t="n">
-        <v>230.4910199072438</v>
+        <v>158.0874584001396</v>
       </c>
       <c r="P23" t="n">
-        <v>242.1770455861357</v>
+        <v>242.1770455861358</v>
       </c>
       <c r="Q23" t="n">
         <v>176.152156149761</v>
@@ -29092,19 +29092,19 @@
         <v>221.2249408455859</v>
       </c>
       <c r="U23" t="n">
-        <v>251.311461543477</v>
+        <v>323.7150230505814</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="W23" t="n">
-        <v>347.8442003205502</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="X23" t="n">
-        <v>347.8442003205502</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="Y23" t="n">
-        <v>347.8442003205502</v>
+        <v>347.8442003205501</v>
       </c>
     </row>
     <row r="24">
@@ -29144,16 +29144,16 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L24" t="n">
-        <v>88.90283864918122</v>
+        <v>88.90283864918121</v>
       </c>
       <c r="M24" t="n">
-        <v>84.19302733439824</v>
+        <v>84.19302733439822</v>
       </c>
       <c r="N24" t="n">
-        <v>71.8671794601849</v>
+        <v>71.86717946018487</v>
       </c>
       <c r="O24" t="n">
-        <v>88.18866638734514</v>
+        <v>88.18866638734512</v>
       </c>
       <c r="P24" t="n">
         <v>90.30752936669646</v>
@@ -29229,10 +29229,10 @@
         <v>108.8738430064009</v>
       </c>
       <c r="N25" t="n">
-        <v>98.34817151022013</v>
+        <v>98.34817151022011</v>
       </c>
       <c r="O25" t="n">
-        <v>111.3587261364776</v>
+        <v>111.3587261364775</v>
       </c>
       <c r="P25" t="n">
         <v>114.5411443216187</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="C26" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="D26" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="E26" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="F26" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="G26" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="H26" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="I26" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="J26" t="n">
-        <v>169.1573795939127</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="K26" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="L26" t="n">
-        <v>221.2249408455858</v>
+        <v>181.2521250194806</v>
       </c>
       <c r="M26" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="N26" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="O26" t="n">
-        <v>207.8798733768264</v>
+        <v>12.57139597456408</v>
       </c>
       <c r="P26" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>176.152156149761</v>
       </c>
       <c r="R26" t="n">
-        <v>123.0219517980703</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="S26" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="U26" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="V26" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="W26" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="X26" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="Y26" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
     </row>
     <row r="27">
@@ -29381,19 +29381,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>88.90283864918122</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>131.8892679758062</v>
+        <v>131.889267975806</v>
       </c>
       <c r="N27" t="n">
-        <v>71.8671794601849</v>
+        <v>71.86717946018487</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>90.30752936669646</v>
       </c>
       <c r="Q27" t="n">
         <v>110.7916225242058</v>
@@ -29408,13 +29408,13 @@
         <v>199.2430083373</v>
       </c>
       <c r="U27" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="V27" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="W27" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -29457,25 +29457,25 @@
         <v>113.4412867354731</v>
       </c>
       <c r="K28" t="n">
-        <v>172.0398639874987</v>
+        <v>106.7396511863337</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N28" t="n">
-        <v>98.34817151022013</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>221.2249408455858</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>114.5411443216187</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>135.4516218226007</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="R28" t="n">
         <v>168.6732614754589</v>
@@ -29484,19 +29484,19 @@
         <v>220.675556989342</v>
       </c>
       <c r="T28" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="U28" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="V28" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="W28" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="X28" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="C29" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="D29" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="E29" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="F29" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="G29" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="H29" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="I29" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="K29" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="L29" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="M29" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="N29" t="n">
-        <v>221.2249408455858</v>
+        <v>141.2525673578362</v>
       </c>
       <c r="O29" t="n">
-        <v>221.2249408455858</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>42.84236081475314</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="Q29" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="R29" t="n">
-        <v>188.7383716710528</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="S29" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="U29" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="V29" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="W29" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="X29" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="Y29" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
     </row>
     <row r="30">
@@ -29609,49 +29609,49 @@
         <v>110.026926034905</v>
       </c>
       <c r="I30" t="n">
-        <v>91.64914299614301</v>
+        <v>81.52339584755809</v>
       </c>
       <c r="J30" t="n">
-        <v>105.2328625520064</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>100.9154559462058</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>88.90283864918121</v>
       </c>
       <c r="M30" t="n">
-        <v>84.19302733439824</v>
+        <v>84.19302733439822</v>
       </c>
       <c r="N30" t="n">
-        <v>71.8671794601849</v>
+        <v>71.86717946018487</v>
       </c>
       <c r="O30" t="n">
-        <v>88.18866638734514</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>90.30752936669646</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.7916225242058</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>131.4816003936965</v>
+        <v>85.95993058237569</v>
       </c>
       <c r="S30" t="n">
-        <v>215.1318756036745</v>
+        <v>167.4356349622666</v>
       </c>
       <c r="T30" t="n">
         <v>199.2430083373</v>
       </c>
       <c r="U30" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="V30" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="W30" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -29694,22 +29694,22 @@
         <v>113.4412867354731</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7396511863337</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>169.1974575470339</v>
       </c>
       <c r="M31" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="N31" t="n">
-        <v>98.34817151022013</v>
+        <v>98.34817151022011</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>111.3587261364775</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>114.5411443216187</v>
       </c>
       <c r="Q31" t="n">
         <v>135.4516218226007</v>
@@ -29721,19 +29721,19 @@
         <v>220.675556989342</v>
       </c>
       <c r="T31" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="U31" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="V31" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="W31" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="X31" t="n">
-        <v>221.2249408455858</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -29767,16 +29767,16 @@
         <v>221.2249408455859</v>
       </c>
       <c r="I32" t="n">
+        <v>193.998857389544</v>
+      </c>
+      <c r="J32" t="n">
+        <v>119.0625859682068</v>
+      </c>
+      <c r="K32" t="n">
         <v>221.2249408455859</v>
       </c>
-      <c r="J32" t="n">
-        <v>103.792683307009</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
       <c r="L32" t="n">
-        <v>181.2521250194808</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="M32" t="n">
         <v>221.2249408455859</v>
@@ -29791,13 +29791,13 @@
         <v>221.2249408455859</v>
       </c>
       <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>123.0219517980703</v>
+      </c>
+      <c r="S32" t="n">
         <v>221.2249408455859</v>
-      </c>
-      <c r="R32" t="n">
-        <v>188.7383716710528</v>
-      </c>
-      <c r="S32" t="n">
-        <v>199.280873144474</v>
       </c>
       <c r="T32" t="n">
         <v>221.2249408455859</v>
@@ -29837,7 +29837,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>192.7654530347916</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.114842254054</v>
@@ -29852,19 +29852,19 @@
         <v>105.2328625520064</v>
       </c>
       <c r="K33" t="n">
-        <v>100.9154559462058</v>
+        <v>148.6116965876136</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>88.90283864918121</v>
       </c>
       <c r="M33" t="n">
-        <v>84.19302733439824</v>
+        <v>84.19302733439822</v>
       </c>
       <c r="N33" t="n">
-        <v>71.8671794601849</v>
+        <v>71.86717946018487</v>
       </c>
       <c r="O33" t="n">
-        <v>88.18866638734514</v>
+        <v>88.18866638734512</v>
       </c>
       <c r="P33" t="n">
         <v>90.30752936669646</v>
@@ -29873,7 +29873,7 @@
         <v>110.7916225242058</v>
       </c>
       <c r="R33" t="n">
-        <v>85.95993058237569</v>
+        <v>131.4816003936965</v>
       </c>
       <c r="S33" t="n">
         <v>167.4356349622666</v>
@@ -29907,7 +29907,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>221.2249408455859</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -29928,13 +29928,13 @@
         <v>149.6851312728186</v>
       </c>
       <c r="J34" t="n">
-        <v>113.4412867354731</v>
+        <v>79.80504541274973</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>208.4365333623651</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>106.3821278759461</v>
       </c>
       <c r="M34" t="n">
         <v>108.8738430064009</v>
@@ -29943,16 +29943,16 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>111.3587261364776</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>221.2249408455859</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>135.4516218226007</v>
+        <v>70.10866344484918</v>
       </c>
       <c r="R34" t="n">
-        <v>183.1777727148065</v>
+        <v>168.6732614754589</v>
       </c>
       <c r="S34" t="n">
         <v>220.675556989342</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="C35" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="D35" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="E35" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="F35" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="G35" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="H35" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="I35" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="J35" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="K35" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="L35" t="n">
-        <v>44.1137719467036</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="M35" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="N35" t="n">
-        <v>244.6402526369833</v>
+        <v>153.1524308331736</v>
       </c>
       <c r="O35" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="P35" t="n">
-        <v>169.7734840790314</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="Q35" t="n">
-        <v>244.6402526369833</v>
+        <v>20.80619274508633</v>
       </c>
       <c r="R35" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="S35" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="T35" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="U35" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="V35" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="W35" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="X35" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="Y35" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
     </row>
     <row r="36">
@@ -30077,13 +30077,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.114842254054</v>
+        <v>144.3128123835675</v>
       </c>
       <c r="H36" t="n">
         <v>110.026926034905</v>
       </c>
       <c r="I36" t="n">
-        <v>81.52339584755809</v>
+        <v>91.64914299614301</v>
       </c>
       <c r="J36" t="n">
         <v>105.2328625520064</v>
@@ -30092,16 +30092,16 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L36" t="n">
-        <v>88.90283864918122</v>
+        <v>88.90283864918121</v>
       </c>
       <c r="M36" t="n">
-        <v>84.19302733439824</v>
+        <v>84.19302733439822</v>
       </c>
       <c r="N36" t="n">
-        <v>71.8671794601849</v>
+        <v>71.86717946018487</v>
       </c>
       <c r="O36" t="n">
-        <v>88.18866638734514</v>
+        <v>88.18866638734512</v>
       </c>
       <c r="P36" t="n">
         <v>90.30752936669646</v>
@@ -30116,7 +30116,7 @@
         <v>167.4356349622666</v>
       </c>
       <c r="T36" t="n">
-        <v>206.4409784668136</v>
+        <v>199.2430083373</v>
       </c>
       <c r="U36" t="n">
         <v>225.9263376790566</v>
@@ -30125,7 +30125,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -30165,25 +30165,25 @@
         <v>149.6851312728186</v>
       </c>
       <c r="J37" t="n">
-        <v>113.4412867354731</v>
+        <v>206.3383952075462</v>
       </c>
       <c r="K37" t="n">
         <v>106.7396511863337</v>
       </c>
       <c r="L37" t="n">
-        <v>199.2792363480195</v>
+        <v>106.3821278759461</v>
       </c>
       <c r="M37" t="n">
         <v>108.8738430064009</v>
       </c>
       <c r="N37" t="n">
-        <v>98.34817151022013</v>
+        <v>98.34817151022011</v>
       </c>
       <c r="O37" t="n">
-        <v>111.3587261364776</v>
+        <v>111.3587261364775</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>114.5411443216187</v>
       </c>
       <c r="Q37" t="n">
         <v>70.10866344484918</v>
@@ -30198,13 +30198,13 @@
         <v>227.1264505172819</v>
       </c>
       <c r="U37" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="V37" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="W37" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="C38" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="D38" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="E38" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="F38" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="G38" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="H38" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="I38" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="J38" t="n">
-        <v>144.7715381416158</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="K38" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="L38" t="n">
-        <v>244.6402526369833</v>
+        <v>224.3734719301328</v>
       </c>
       <c r="M38" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="N38" t="n">
-        <v>115.8772148215726</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="O38" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="P38" t="n">
-        <v>244.6402526369833</v>
+        <v>169.7734840790314</v>
       </c>
       <c r="Q38" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="R38" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="S38" t="n">
-        <v>244.6402526369833</v>
+        <v>199.280873144474</v>
       </c>
       <c r="T38" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="U38" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="V38" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="W38" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="X38" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="Y38" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
     </row>
     <row r="39">
@@ -30320,7 +30320,7 @@
         <v>110.026926034905</v>
       </c>
       <c r="I39" t="n">
-        <v>91.64914299614301</v>
+        <v>81.52339584755809</v>
       </c>
       <c r="J39" t="n">
         <v>105.2328625520064</v>
@@ -30329,25 +30329,25 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L39" t="n">
-        <v>88.90283864918122</v>
+        <v>88.90283864918121</v>
       </c>
       <c r="M39" t="n">
-        <v>84.19302733439824</v>
+        <v>84.19302733439822</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>79.06514958969839</v>
       </c>
       <c r="O39" t="n">
-        <v>88.18866638734514</v>
+        <v>88.18866638734512</v>
       </c>
       <c r="P39" t="n">
-        <v>97.50549949621006</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>110.7916225242058</v>
       </c>
       <c r="R39" t="n">
-        <v>131.4816003936965</v>
+        <v>85.95993058237569</v>
       </c>
       <c r="S39" t="n">
         <v>167.4356349622666</v>
@@ -30362,7 +30362,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -30390,13 +30390,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>238.3181564950046</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.7992659963099</v>
       </c>
       <c r="H40" t="n">
-        <v>160.5226664330617</v>
+        <v>188.6115024500887</v>
       </c>
       <c r="I40" t="n">
         <v>149.6851312728186</v>
@@ -30405,25 +30405,25 @@
         <v>113.4412867354731</v>
       </c>
       <c r="K40" t="n">
-        <v>106.7396511863337</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>106.3821278759461</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>108.8738430064009</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>98.34817151022013</v>
+        <v>98.34817151022011</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>111.3587261364775</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>114.5411443216187</v>
       </c>
       <c r="Q40" t="n">
-        <v>135.4516218226007</v>
+        <v>70.10866344484918</v>
       </c>
       <c r="R40" t="n">
         <v>168.6732614754589</v>
@@ -30435,13 +30435,13 @@
         <v>227.1264505172819</v>
       </c>
       <c r="U40" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="V40" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="W40" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -30478,25 +30478,25 @@
         <v>244.6402526369833</v>
       </c>
       <c r="I41" t="n">
-        <v>193.998857389544</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="J41" t="n">
         <v>244.6402526369833</v>
       </c>
       <c r="K41" t="n">
-        <v>165.7239789931989</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="L41" t="n">
         <v>244.6402526369833</v>
       </c>
       <c r="M41" t="n">
-        <v>206.8323983508609</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="N41" t="n">
         <v>244.6402526369833</v>
       </c>
       <c r="O41" t="n">
-        <v>244.6402526369833</v>
+        <v>172.1721784654916</v>
       </c>
       <c r="P41" t="n">
         <v>244.6402526369833</v>
@@ -30508,10 +30508,10 @@
         <v>244.6402526369833</v>
       </c>
       <c r="S41" t="n">
+        <v>199.280873144474</v>
+      </c>
+      <c r="T41" t="n">
         <v>244.6402526369833</v>
-      </c>
-      <c r="T41" t="n">
-        <v>221.2249408455859</v>
       </c>
       <c r="U41" t="n">
         <v>244.6402526369833</v>
@@ -30557,7 +30557,7 @@
         <v>110.026926034905</v>
       </c>
       <c r="I42" t="n">
-        <v>98.84711312565668</v>
+        <v>91.64914299614301</v>
       </c>
       <c r="J42" t="n">
         <v>105.2328625520064</v>
@@ -30566,25 +30566,25 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L42" t="n">
-        <v>88.90283864918122</v>
+        <v>88.90283864918121</v>
       </c>
       <c r="M42" t="n">
-        <v>84.19302733439824</v>
+        <v>84.19302733439822</v>
       </c>
       <c r="N42" t="n">
-        <v>71.8671794601849</v>
+        <v>71.86717946018487</v>
       </c>
       <c r="O42" t="n">
-        <v>88.18866638734514</v>
+        <v>88.18866638734512</v>
       </c>
       <c r="P42" t="n">
-        <v>90.30752936669646</v>
+        <v>97.50549949621006</v>
       </c>
       <c r="Q42" t="n">
         <v>110.7916225242058</v>
       </c>
       <c r="R42" t="n">
-        <v>85.95993058237569</v>
+        <v>131.4816003936965</v>
       </c>
       <c r="S42" t="n">
         <v>167.4356349622666</v>
@@ -30633,25 +30633,25 @@
         <v>167.7992659963099</v>
       </c>
       <c r="H43" t="n">
-        <v>160.5226664330617</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="I43" t="n">
         <v>149.6851312728186</v>
       </c>
       <c r="J43" t="n">
-        <v>206.3383952075466</v>
+        <v>113.4412867354731</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>106.3821278759461</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>108.8738430064009</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>98.34817151022013</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30721,19 +30721,19 @@
         <v>244.6402526369833</v>
       </c>
       <c r="K44" t="n">
-        <v>186.332242522439</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="L44" t="n">
         <v>244.6402526369833</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="N44" t="n">
         <v>244.6402526369833</v>
       </c>
       <c r="O44" t="n">
-        <v>244.6402526369833</v>
+        <v>158.0874584001396</v>
       </c>
       <c r="P44" t="n">
         <v>244.6402526369833</v>
@@ -30791,7 +30791,7 @@
         <v>137.114842254054</v>
       </c>
       <c r="H45" t="n">
-        <v>117.2248961644187</v>
+        <v>110.026926034905</v>
       </c>
       <c r="I45" t="n">
         <v>91.64914299614301</v>
@@ -30800,31 +30800,31 @@
         <v>105.2328625520064</v>
       </c>
       <c r="K45" t="n">
-        <v>100.9154559462058</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>88.90283864918122</v>
+        <v>88.90283864918121</v>
       </c>
       <c r="M45" t="n">
-        <v>84.19302733439824</v>
+        <v>84.19302733439822</v>
       </c>
       <c r="N45" t="n">
-        <v>71.8671794601849</v>
+        <v>71.86717946018487</v>
       </c>
       <c r="O45" t="n">
-        <v>88.18866638734514</v>
+        <v>88.18866638734512</v>
       </c>
       <c r="P45" t="n">
         <v>90.30752936669646</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.7916225242058</v>
+        <v>100.8901034197351</v>
       </c>
       <c r="R45" t="n">
-        <v>131.4816003936965</v>
+        <v>85.95993058237569</v>
       </c>
       <c r="S45" t="n">
-        <v>167.4356349622666</v>
+        <v>174.6336050917802</v>
       </c>
       <c r="T45" t="n">
         <v>199.2430083373</v>
@@ -30870,31 +30870,31 @@
         <v>167.7992659963099</v>
       </c>
       <c r="H46" t="n">
-        <v>160.5226664330617</v>
+        <v>244.6402526369833</v>
       </c>
       <c r="I46" t="n">
-        <v>242.5822397448921</v>
+        <v>149.6851312728186</v>
       </c>
       <c r="J46" t="n">
         <v>113.4412867354731</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7396511863337</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>108.8738430064009</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>98.34817151022013</v>
+        <v>98.34817151022011</v>
       </c>
       <c r="O46" t="n">
-        <v>111.3587261364776</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>114.5411443216187</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>135.4516218226007</v>
@@ -30906,7 +30906,7 @@
         <v>220.675556989342</v>
       </c>
       <c r="T46" t="n">
-        <v>227.1264505172819</v>
+        <v>235.9059727854336</v>
       </c>
       <c r="U46" t="n">
         <v>244.6402526369833</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4273920544935322</v>
+        <v>0.4273920544935323</v>
       </c>
       <c r="H11" t="n">
-        <v>4.377028878081887</v>
+        <v>4.377028878081889</v>
       </c>
       <c r="I11" t="n">
         <v>16.47703218086192</v>
       </c>
       <c r="J11" t="n">
-        <v>36.27436638507046</v>
+        <v>36.27436638507047</v>
       </c>
       <c r="K11" t="n">
-        <v>54.36587205178169</v>
+        <v>54.3658720517817</v>
       </c>
       <c r="L11" t="n">
-        <v>67.44567163948814</v>
+        <v>67.44567163948815</v>
       </c>
       <c r="M11" t="n">
-        <v>75.04630508858749</v>
+        <v>75.0463050885875</v>
       </c>
       <c r="N11" t="n">
-        <v>76.26063276341723</v>
+        <v>76.26063276341726</v>
       </c>
       <c r="O11" t="n">
-        <v>72.01075302154717</v>
+        <v>72.01075302154719</v>
       </c>
       <c r="P11" t="n">
-        <v>61.45951167623809</v>
+        <v>61.45951167623811</v>
       </c>
       <c r="Q11" t="n">
-        <v>46.15353372468846</v>
+        <v>46.15353372468847</v>
       </c>
       <c r="R11" t="n">
-        <v>26.84716614307936</v>
+        <v>26.84716614307937</v>
       </c>
       <c r="S11" t="n">
-        <v>9.739196441771375</v>
+        <v>9.739196441771377</v>
       </c>
       <c r="T11" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03419136435948257</v>
+        <v>0.03419136435948258</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2286749091566103</v>
+        <v>0.2286749091566104</v>
       </c>
       <c r="H12" t="n">
         <v>2.208518201591474</v>
       </c>
       <c r="I12" t="n">
-        <v>7.87323700385698</v>
+        <v>7.873237003856982</v>
       </c>
       <c r="J12" t="n">
-        <v>21.60476411466028</v>
+        <v>21.60476411466029</v>
       </c>
       <c r="K12" t="n">
         <v>36.92598302815318</v>
       </c>
       <c r="L12" t="n">
-        <v>49.65154113069296</v>
+        <v>49.65154113069298</v>
       </c>
       <c r="M12" t="n">
-        <v>57.94100658762007</v>
+        <v>57.94100658762009</v>
       </c>
       <c r="N12" t="n">
-        <v>59.47453262314841</v>
+        <v>59.47453262314843</v>
       </c>
       <c r="O12" t="n">
-        <v>54.4075780570993</v>
+        <v>54.40757805709931</v>
       </c>
       <c r="P12" t="n">
-        <v>43.66687804763378</v>
+        <v>43.66687804763379</v>
       </c>
       <c r="Q12" t="n">
-        <v>29.19015156181574</v>
+        <v>29.19015156181575</v>
       </c>
       <c r="R12" t="n">
-        <v>14.19790357026744</v>
+        <v>14.19790357026745</v>
       </c>
       <c r="S12" t="n">
-        <v>4.247536141571246</v>
+        <v>4.247536141571247</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9217203575216001</v>
+        <v>0.9217203575216003</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01504440191819805</v>
+        <v>0.01504440191819806</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,22 +31914,22 @@
         <v>1.704506074377876</v>
       </c>
       <c r="I13" t="n">
-        <v>5.765343654439683</v>
+        <v>5.765343654439685</v>
       </c>
       <c r="J13" t="n">
-        <v>13.55413470392303</v>
+        <v>13.55413470392304</v>
       </c>
       <c r="K13" t="n">
         <v>22.27360698420167</v>
       </c>
       <c r="L13" t="n">
-        <v>28.50254840529219</v>
+        <v>28.5025484052922</v>
       </c>
       <c r="M13" t="n">
-        <v>30.05194094120418</v>
+        <v>30.05194094120419</v>
       </c>
       <c r="N13" t="n">
-        <v>29.33737295501307</v>
+        <v>29.33737295501308</v>
       </c>
       <c r="O13" t="n">
         <v>27.09781231536524</v>
@@ -31941,13 +31941,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R13" t="n">
-        <v>8.620129901710598</v>
+        <v>8.6201299017106</v>
       </c>
       <c r="S13" t="n">
-        <v>3.34104104763025</v>
+        <v>3.341041047630251</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8191389109995918</v>
+        <v>0.819138910999592</v>
       </c>
       <c r="U13" t="n">
         <v>0.01045709248084587</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4273920544935322</v>
+        <v>0.4273920544935323</v>
       </c>
       <c r="H14" t="n">
-        <v>4.377028878081887</v>
+        <v>4.377028878081889</v>
       </c>
       <c r="I14" t="n">
         <v>16.47703218086192</v>
       </c>
       <c r="J14" t="n">
-        <v>36.27436638507046</v>
+        <v>36.27436638507047</v>
       </c>
       <c r="K14" t="n">
-        <v>54.36587205178169</v>
+        <v>54.3658720517817</v>
       </c>
       <c r="L14" t="n">
-        <v>67.44567163948814</v>
+        <v>67.44567163948815</v>
       </c>
       <c r="M14" t="n">
-        <v>75.04630508858749</v>
+        <v>75.0463050885875</v>
       </c>
       <c r="N14" t="n">
-        <v>76.26063276341723</v>
+        <v>76.26063276341726</v>
       </c>
       <c r="O14" t="n">
-        <v>72.01075302154717</v>
+        <v>72.01075302154719</v>
       </c>
       <c r="P14" t="n">
-        <v>61.45951167623809</v>
+        <v>61.45951167623811</v>
       </c>
       <c r="Q14" t="n">
-        <v>46.15353372468846</v>
+        <v>46.15353372468847</v>
       </c>
       <c r="R14" t="n">
-        <v>26.84716614307936</v>
+        <v>26.84716614307937</v>
       </c>
       <c r="S14" t="n">
-        <v>9.739196441771375</v>
+        <v>9.739196441771377</v>
       </c>
       <c r="T14" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03419136435948257</v>
+        <v>0.03419136435948258</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2286749091566103</v>
+        <v>0.2286749091566104</v>
       </c>
       <c r="H15" t="n">
         <v>2.208518201591474</v>
       </c>
       <c r="I15" t="n">
-        <v>7.87323700385698</v>
+        <v>7.873237003856982</v>
       </c>
       <c r="J15" t="n">
-        <v>21.60476411466028</v>
+        <v>21.60476411466029</v>
       </c>
       <c r="K15" t="n">
         <v>36.92598302815318</v>
       </c>
       <c r="L15" t="n">
-        <v>49.65154113069296</v>
+        <v>49.65154113069298</v>
       </c>
       <c r="M15" t="n">
-        <v>57.94100658762007</v>
+        <v>57.94100658762009</v>
       </c>
       <c r="N15" t="n">
-        <v>59.47453262314841</v>
+        <v>59.47453262314843</v>
       </c>
       <c r="O15" t="n">
-        <v>54.4075780570993</v>
+        <v>54.40757805709931</v>
       </c>
       <c r="P15" t="n">
-        <v>43.66687804763378</v>
+        <v>43.66687804763379</v>
       </c>
       <c r="Q15" t="n">
-        <v>29.19015156181574</v>
+        <v>29.19015156181575</v>
       </c>
       <c r="R15" t="n">
-        <v>14.19790357026744</v>
+        <v>14.19790357026745</v>
       </c>
       <c r="S15" t="n">
-        <v>4.247536141571246</v>
+        <v>4.247536141571247</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9217203575216001</v>
+        <v>0.9217203575216003</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01504440191819805</v>
+        <v>0.01504440191819806</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,22 +32151,22 @@
         <v>1.704506074377876</v>
       </c>
       <c r="I16" t="n">
-        <v>5.765343654439683</v>
+        <v>5.765343654439685</v>
       </c>
       <c r="J16" t="n">
-        <v>13.55413470392303</v>
+        <v>13.55413470392304</v>
       </c>
       <c r="K16" t="n">
         <v>22.27360698420167</v>
       </c>
       <c r="L16" t="n">
-        <v>28.50254840529219</v>
+        <v>28.5025484052922</v>
       </c>
       <c r="M16" t="n">
-        <v>30.05194094120418</v>
+        <v>30.05194094120419</v>
       </c>
       <c r="N16" t="n">
-        <v>29.33737295501307</v>
+        <v>29.33737295501308</v>
       </c>
       <c r="O16" t="n">
         <v>27.09781231536524</v>
@@ -32178,13 +32178,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R16" t="n">
-        <v>8.620129901710598</v>
+        <v>8.6201299017106</v>
       </c>
       <c r="S16" t="n">
-        <v>3.34104104763025</v>
+        <v>3.341041047630251</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8191389109995918</v>
+        <v>0.819138910999592</v>
       </c>
       <c r="U16" t="n">
         <v>0.01045709248084587</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4273920544935322</v>
+        <v>0.4273920544935323</v>
       </c>
       <c r="H17" t="n">
-        <v>4.377028878081887</v>
+        <v>4.377028878081889</v>
       </c>
       <c r="I17" t="n">
         <v>16.47703218086192</v>
       </c>
       <c r="J17" t="n">
-        <v>36.27436638507046</v>
+        <v>36.27436638507047</v>
       </c>
       <c r="K17" t="n">
-        <v>54.36587205178169</v>
+        <v>54.3658720517817</v>
       </c>
       <c r="L17" t="n">
-        <v>67.44567163948814</v>
+        <v>67.44567163948815</v>
       </c>
       <c r="M17" t="n">
-        <v>75.04630508858749</v>
+        <v>75.0463050885875</v>
       </c>
       <c r="N17" t="n">
-        <v>76.26063276341723</v>
+        <v>76.26063276341726</v>
       </c>
       <c r="O17" t="n">
-        <v>72.01075302154717</v>
+        <v>72.01075302154719</v>
       </c>
       <c r="P17" t="n">
-        <v>61.45951167623809</v>
+        <v>61.45951167623811</v>
       </c>
       <c r="Q17" t="n">
-        <v>46.15353372468846</v>
+        <v>46.15353372468847</v>
       </c>
       <c r="R17" t="n">
-        <v>26.84716614307936</v>
+        <v>26.84716614307937</v>
       </c>
       <c r="S17" t="n">
-        <v>9.739196441771375</v>
+        <v>9.739196441771377</v>
       </c>
       <c r="T17" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03419136435948257</v>
+        <v>0.03419136435948258</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2286749091566103</v>
+        <v>0.2286749091566104</v>
       </c>
       <c r="H18" t="n">
         <v>2.208518201591474</v>
       </c>
       <c r="I18" t="n">
-        <v>7.87323700385698</v>
+        <v>7.873237003856982</v>
       </c>
       <c r="J18" t="n">
-        <v>21.60476411466028</v>
+        <v>21.60476411466029</v>
       </c>
       <c r="K18" t="n">
         <v>36.92598302815318</v>
       </c>
       <c r="L18" t="n">
-        <v>49.65154113069296</v>
+        <v>49.65154113069298</v>
       </c>
       <c r="M18" t="n">
-        <v>57.94100658762007</v>
+        <v>57.94100658762009</v>
       </c>
       <c r="N18" t="n">
-        <v>59.47453262314841</v>
+        <v>59.47453262314843</v>
       </c>
       <c r="O18" t="n">
-        <v>54.4075780570993</v>
+        <v>54.40757805709931</v>
       </c>
       <c r="P18" t="n">
-        <v>43.66687804763378</v>
+        <v>43.66687804763379</v>
       </c>
       <c r="Q18" t="n">
-        <v>29.19015156181574</v>
+        <v>29.19015156181575</v>
       </c>
       <c r="R18" t="n">
-        <v>14.19790357026744</v>
+        <v>14.19790357026745</v>
       </c>
       <c r="S18" t="n">
-        <v>4.247536141571246</v>
+        <v>4.247536141571247</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9217203575216001</v>
+        <v>0.9217203575216003</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01504440191819805</v>
+        <v>0.01504440191819806</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,22 +32388,22 @@
         <v>1.704506074377876</v>
       </c>
       <c r="I19" t="n">
-        <v>5.765343654439683</v>
+        <v>5.765343654439685</v>
       </c>
       <c r="J19" t="n">
-        <v>13.55413470392303</v>
+        <v>13.55413470392304</v>
       </c>
       <c r="K19" t="n">
         <v>22.27360698420167</v>
       </c>
       <c r="L19" t="n">
-        <v>28.50254840529219</v>
+        <v>28.5025484052922</v>
       </c>
       <c r="M19" t="n">
-        <v>30.05194094120418</v>
+        <v>30.05194094120419</v>
       </c>
       <c r="N19" t="n">
-        <v>29.33737295501307</v>
+        <v>29.33737295501308</v>
       </c>
       <c r="O19" t="n">
         <v>27.09781231536524</v>
@@ -32415,13 +32415,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R19" t="n">
-        <v>8.620129901710598</v>
+        <v>8.6201299017106</v>
       </c>
       <c r="S19" t="n">
-        <v>3.34104104763025</v>
+        <v>3.341041047630251</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8191389109995918</v>
+        <v>0.819138910999592</v>
       </c>
       <c r="U19" t="n">
         <v>0.01045709248084587</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4273920544935322</v>
+        <v>0.4273920544935323</v>
       </c>
       <c r="H20" t="n">
-        <v>4.377028878081887</v>
+        <v>4.377028878081889</v>
       </c>
       <c r="I20" t="n">
         <v>16.47703218086192</v>
       </c>
       <c r="J20" t="n">
-        <v>36.27436638507046</v>
+        <v>36.27436638507047</v>
       </c>
       <c r="K20" t="n">
-        <v>54.36587205178169</v>
+        <v>54.3658720517817</v>
       </c>
       <c r="L20" t="n">
-        <v>67.44567163948814</v>
+        <v>67.44567163948815</v>
       </c>
       <c r="M20" t="n">
-        <v>75.04630508858749</v>
+        <v>75.0463050885875</v>
       </c>
       <c r="N20" t="n">
-        <v>76.26063276341723</v>
+        <v>76.26063276341726</v>
       </c>
       <c r="O20" t="n">
-        <v>72.01075302154717</v>
+        <v>72.01075302154719</v>
       </c>
       <c r="P20" t="n">
-        <v>61.45951167623809</v>
+        <v>61.45951167623811</v>
       </c>
       <c r="Q20" t="n">
-        <v>46.15353372468846</v>
+        <v>46.15353372468847</v>
       </c>
       <c r="R20" t="n">
-        <v>26.84716614307936</v>
+        <v>26.84716614307937</v>
       </c>
       <c r="S20" t="n">
-        <v>9.739196441771375</v>
+        <v>9.739196441771377</v>
       </c>
       <c r="T20" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03419136435948257</v>
+        <v>0.03419136435948258</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2286749091566103</v>
+        <v>0.2286749091566104</v>
       </c>
       <c r="H21" t="n">
         <v>2.208518201591474</v>
       </c>
       <c r="I21" t="n">
-        <v>7.87323700385698</v>
+        <v>7.873237003856982</v>
       </c>
       <c r="J21" t="n">
-        <v>21.60476411466028</v>
+        <v>21.60476411466029</v>
       </c>
       <c r="K21" t="n">
         <v>36.92598302815318</v>
       </c>
       <c r="L21" t="n">
-        <v>49.65154113069296</v>
+        <v>49.65154113069298</v>
       </c>
       <c r="M21" t="n">
-        <v>57.94100658762007</v>
+        <v>57.94100658762009</v>
       </c>
       <c r="N21" t="n">
-        <v>59.47453262314841</v>
+        <v>59.47453262314843</v>
       </c>
       <c r="O21" t="n">
-        <v>54.4075780570993</v>
+        <v>54.40757805709931</v>
       </c>
       <c r="P21" t="n">
-        <v>43.66687804763378</v>
+        <v>43.66687804763379</v>
       </c>
       <c r="Q21" t="n">
-        <v>29.19015156181574</v>
+        <v>29.19015156181575</v>
       </c>
       <c r="R21" t="n">
-        <v>14.19790357026744</v>
+        <v>14.19790357026745</v>
       </c>
       <c r="S21" t="n">
-        <v>4.247536141571246</v>
+        <v>4.247536141571247</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9217203575216001</v>
+        <v>0.9217203575216003</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01504440191819805</v>
+        <v>0.01504440191819806</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,22 +32625,22 @@
         <v>1.704506074377876</v>
       </c>
       <c r="I22" t="n">
-        <v>5.765343654439683</v>
+        <v>5.765343654439685</v>
       </c>
       <c r="J22" t="n">
-        <v>13.55413470392303</v>
+        <v>13.55413470392304</v>
       </c>
       <c r="K22" t="n">
         <v>22.27360698420167</v>
       </c>
       <c r="L22" t="n">
-        <v>28.50254840529219</v>
+        <v>28.5025484052922</v>
       </c>
       <c r="M22" t="n">
-        <v>30.05194094120418</v>
+        <v>30.05194094120419</v>
       </c>
       <c r="N22" t="n">
-        <v>29.33737295501307</v>
+        <v>29.33737295501308</v>
       </c>
       <c r="O22" t="n">
         <v>27.09781231536524</v>
@@ -32652,13 +32652,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R22" t="n">
-        <v>8.620129901710598</v>
+        <v>8.6201299017106</v>
       </c>
       <c r="S22" t="n">
-        <v>3.34104104763025</v>
+        <v>3.341041047630251</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8191389109995918</v>
+        <v>0.819138910999592</v>
       </c>
       <c r="U22" t="n">
         <v>0.01045709248084587</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4273920544935322</v>
+        <v>0.4273920544935323</v>
       </c>
       <c r="H23" t="n">
-        <v>4.377028878081887</v>
+        <v>4.377028878081889</v>
       </c>
       <c r="I23" t="n">
         <v>16.47703218086192</v>
       </c>
       <c r="J23" t="n">
-        <v>36.27436638507046</v>
+        <v>36.27436638507047</v>
       </c>
       <c r="K23" t="n">
-        <v>54.36587205178169</v>
+        <v>54.3658720517817</v>
       </c>
       <c r="L23" t="n">
-        <v>67.44567163948814</v>
+        <v>67.44567163948815</v>
       </c>
       <c r="M23" t="n">
-        <v>75.04630508858749</v>
+        <v>75.0463050885875</v>
       </c>
       <c r="N23" t="n">
-        <v>76.26063276341723</v>
+        <v>76.26063276341726</v>
       </c>
       <c r="O23" t="n">
-        <v>72.01075302154717</v>
+        <v>72.01075302154719</v>
       </c>
       <c r="P23" t="n">
-        <v>61.45951167623809</v>
+        <v>61.45951167623811</v>
       </c>
       <c r="Q23" t="n">
-        <v>46.15353372468846</v>
+        <v>46.15353372468847</v>
       </c>
       <c r="R23" t="n">
-        <v>26.84716614307936</v>
+        <v>26.84716614307937</v>
       </c>
       <c r="S23" t="n">
-        <v>9.739196441771375</v>
+        <v>9.739196441771377</v>
       </c>
       <c r="T23" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03419136435948257</v>
+        <v>0.03419136435948258</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2286749091566103</v>
+        <v>0.2286749091566104</v>
       </c>
       <c r="H24" t="n">
         <v>2.208518201591474</v>
       </c>
       <c r="I24" t="n">
-        <v>7.87323700385698</v>
+        <v>7.873237003856982</v>
       </c>
       <c r="J24" t="n">
-        <v>21.60476411466028</v>
+        <v>21.60476411466029</v>
       </c>
       <c r="K24" t="n">
         <v>36.92598302815318</v>
       </c>
       <c r="L24" t="n">
-        <v>49.65154113069296</v>
+        <v>49.65154113069298</v>
       </c>
       <c r="M24" t="n">
-        <v>57.94100658762007</v>
+        <v>57.94100658762009</v>
       </c>
       <c r="N24" t="n">
-        <v>59.47453262314841</v>
+        <v>59.47453262314843</v>
       </c>
       <c r="O24" t="n">
-        <v>54.4075780570993</v>
+        <v>54.40757805709931</v>
       </c>
       <c r="P24" t="n">
-        <v>43.66687804763378</v>
+        <v>43.66687804763379</v>
       </c>
       <c r="Q24" t="n">
-        <v>29.19015156181574</v>
+        <v>29.19015156181575</v>
       </c>
       <c r="R24" t="n">
-        <v>14.19790357026744</v>
+        <v>14.19790357026745</v>
       </c>
       <c r="S24" t="n">
-        <v>4.247536141571246</v>
+        <v>4.247536141571247</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9217203575216001</v>
+        <v>0.9217203575216003</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01504440191819805</v>
+        <v>0.01504440191819806</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,22 +32862,22 @@
         <v>1.704506074377876</v>
       </c>
       <c r="I25" t="n">
-        <v>5.765343654439683</v>
+        <v>5.765343654439685</v>
       </c>
       <c r="J25" t="n">
-        <v>13.55413470392303</v>
+        <v>13.55413470392304</v>
       </c>
       <c r="K25" t="n">
         <v>22.27360698420167</v>
       </c>
       <c r="L25" t="n">
-        <v>28.50254840529219</v>
+        <v>28.5025484052922</v>
       </c>
       <c r="M25" t="n">
-        <v>30.05194094120418</v>
+        <v>30.05194094120419</v>
       </c>
       <c r="N25" t="n">
-        <v>29.33737295501307</v>
+        <v>29.33737295501308</v>
       </c>
       <c r="O25" t="n">
         <v>27.09781231536524</v>
@@ -32889,13 +32889,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R25" t="n">
-        <v>8.620129901710598</v>
+        <v>8.6201299017106</v>
       </c>
       <c r="S25" t="n">
-        <v>3.34104104763025</v>
+        <v>3.341041047630251</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8191389109995918</v>
+        <v>0.819138910999592</v>
       </c>
       <c r="U25" t="n">
         <v>0.01045709248084587</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4273920544935322</v>
+        <v>0.4273920544935323</v>
       </c>
       <c r="H26" t="n">
-        <v>4.377028878081887</v>
+        <v>4.377028878081889</v>
       </c>
       <c r="I26" t="n">
         <v>16.47703218086192</v>
       </c>
       <c r="J26" t="n">
-        <v>36.27436638507046</v>
+        <v>36.27436638507047</v>
       </c>
       <c r="K26" t="n">
-        <v>54.36587205178169</v>
+        <v>54.3658720517817</v>
       </c>
       <c r="L26" t="n">
-        <v>67.44567163948814</v>
+        <v>67.44567163948815</v>
       </c>
       <c r="M26" t="n">
-        <v>75.04630508858749</v>
+        <v>75.0463050885875</v>
       </c>
       <c r="N26" t="n">
-        <v>76.26063276341723</v>
+        <v>76.26063276341726</v>
       </c>
       <c r="O26" t="n">
-        <v>72.01075302154717</v>
+        <v>72.01075302154719</v>
       </c>
       <c r="P26" t="n">
-        <v>61.45951167623809</v>
+        <v>61.45951167623811</v>
       </c>
       <c r="Q26" t="n">
-        <v>46.15353372468846</v>
+        <v>46.15353372468847</v>
       </c>
       <c r="R26" t="n">
-        <v>26.84716614307936</v>
+        <v>26.84716614307937</v>
       </c>
       <c r="S26" t="n">
-        <v>9.739196441771375</v>
+        <v>9.739196441771377</v>
       </c>
       <c r="T26" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03419136435948257</v>
+        <v>0.03419136435948258</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2286749091566103</v>
+        <v>0.2286749091566104</v>
       </c>
       <c r="H27" t="n">
         <v>2.208518201591474</v>
       </c>
       <c r="I27" t="n">
-        <v>7.87323700385698</v>
+        <v>7.873237003856982</v>
       </c>
       <c r="J27" t="n">
-        <v>21.60476411466028</v>
+        <v>21.60476411466029</v>
       </c>
       <c r="K27" t="n">
         <v>36.92598302815318</v>
       </c>
       <c r="L27" t="n">
-        <v>49.65154113069296</v>
+        <v>49.65154113069298</v>
       </c>
       <c r="M27" t="n">
-        <v>57.94100658762007</v>
+        <v>57.94100658762009</v>
       </c>
       <c r="N27" t="n">
-        <v>59.47453262314841</v>
+        <v>59.47453262314843</v>
       </c>
       <c r="O27" t="n">
-        <v>54.4075780570993</v>
+        <v>54.40757805709931</v>
       </c>
       <c r="P27" t="n">
-        <v>43.66687804763378</v>
+        <v>43.66687804763379</v>
       </c>
       <c r="Q27" t="n">
-        <v>29.19015156181574</v>
+        <v>29.19015156181575</v>
       </c>
       <c r="R27" t="n">
-        <v>14.19790357026744</v>
+        <v>14.19790357026745</v>
       </c>
       <c r="S27" t="n">
-        <v>4.247536141571246</v>
+        <v>4.247536141571247</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9217203575216001</v>
+        <v>0.9217203575216003</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01504440191819805</v>
+        <v>0.01504440191819806</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33099,22 +33099,22 @@
         <v>1.704506074377876</v>
       </c>
       <c r="I28" t="n">
-        <v>5.765343654439683</v>
+        <v>5.765343654439685</v>
       </c>
       <c r="J28" t="n">
-        <v>13.55413470392303</v>
+        <v>13.55413470392304</v>
       </c>
       <c r="K28" t="n">
         <v>22.27360698420167</v>
       </c>
       <c r="L28" t="n">
-        <v>28.50254840529219</v>
+        <v>28.5025484052922</v>
       </c>
       <c r="M28" t="n">
-        <v>30.05194094120418</v>
+        <v>30.05194094120419</v>
       </c>
       <c r="N28" t="n">
-        <v>29.33737295501307</v>
+        <v>29.33737295501308</v>
       </c>
       <c r="O28" t="n">
         <v>27.09781231536524</v>
@@ -33126,13 +33126,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R28" t="n">
-        <v>8.620129901710598</v>
+        <v>8.6201299017106</v>
       </c>
       <c r="S28" t="n">
-        <v>3.34104104763025</v>
+        <v>3.341041047630251</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8191389109995918</v>
+        <v>0.819138910999592</v>
       </c>
       <c r="U28" t="n">
         <v>0.01045709248084587</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4273920544935322</v>
+        <v>0.4273920544935323</v>
       </c>
       <c r="H29" t="n">
-        <v>4.377028878081887</v>
+        <v>4.377028878081889</v>
       </c>
       <c r="I29" t="n">
         <v>16.47703218086192</v>
       </c>
       <c r="J29" t="n">
-        <v>36.27436638507046</v>
+        <v>36.27436638507047</v>
       </c>
       <c r="K29" t="n">
-        <v>54.36587205178169</v>
+        <v>54.3658720517817</v>
       </c>
       <c r="L29" t="n">
-        <v>67.44567163948814</v>
+        <v>67.44567163948815</v>
       </c>
       <c r="M29" t="n">
-        <v>75.04630508858749</v>
+        <v>75.0463050885875</v>
       </c>
       <c r="N29" t="n">
-        <v>76.26063276341723</v>
+        <v>76.26063276341726</v>
       </c>
       <c r="O29" t="n">
-        <v>72.01075302154717</v>
+        <v>72.01075302154719</v>
       </c>
       <c r="P29" t="n">
-        <v>61.45951167623809</v>
+        <v>61.45951167623811</v>
       </c>
       <c r="Q29" t="n">
-        <v>46.15353372468846</v>
+        <v>46.15353372468847</v>
       </c>
       <c r="R29" t="n">
-        <v>26.84716614307936</v>
+        <v>26.84716614307937</v>
       </c>
       <c r="S29" t="n">
-        <v>9.739196441771375</v>
+        <v>9.739196441771377</v>
       </c>
       <c r="T29" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03419136435948257</v>
+        <v>0.03419136435948258</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2286749091566103</v>
+        <v>0.2286749091566104</v>
       </c>
       <c r="H30" t="n">
         <v>2.208518201591474</v>
       </c>
       <c r="I30" t="n">
-        <v>7.87323700385698</v>
+        <v>7.873237003856982</v>
       </c>
       <c r="J30" t="n">
-        <v>21.60476411466028</v>
+        <v>21.60476411466029</v>
       </c>
       <c r="K30" t="n">
         <v>36.92598302815318</v>
       </c>
       <c r="L30" t="n">
-        <v>49.65154113069296</v>
+        <v>49.65154113069298</v>
       </c>
       <c r="M30" t="n">
-        <v>57.94100658762007</v>
+        <v>57.94100658762009</v>
       </c>
       <c r="N30" t="n">
-        <v>59.47453262314841</v>
+        <v>59.47453262314843</v>
       </c>
       <c r="O30" t="n">
-        <v>54.4075780570993</v>
+        <v>54.40757805709931</v>
       </c>
       <c r="P30" t="n">
-        <v>43.66687804763378</v>
+        <v>43.66687804763379</v>
       </c>
       <c r="Q30" t="n">
-        <v>29.19015156181574</v>
+        <v>29.19015156181575</v>
       </c>
       <c r="R30" t="n">
-        <v>14.19790357026744</v>
+        <v>14.19790357026745</v>
       </c>
       <c r="S30" t="n">
-        <v>4.247536141571246</v>
+        <v>4.247536141571247</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9217203575216001</v>
+        <v>0.9217203575216003</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01504440191819805</v>
+        <v>0.01504440191819806</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,22 +33336,22 @@
         <v>1.704506074377876</v>
       </c>
       <c r="I31" t="n">
-        <v>5.765343654439683</v>
+        <v>5.765343654439685</v>
       </c>
       <c r="J31" t="n">
-        <v>13.55413470392303</v>
+        <v>13.55413470392304</v>
       </c>
       <c r="K31" t="n">
         <v>22.27360698420167</v>
       </c>
       <c r="L31" t="n">
-        <v>28.50254840529219</v>
+        <v>28.5025484052922</v>
       </c>
       <c r="M31" t="n">
-        <v>30.05194094120418</v>
+        <v>30.05194094120419</v>
       </c>
       <c r="N31" t="n">
-        <v>29.33737295501307</v>
+        <v>29.33737295501308</v>
       </c>
       <c r="O31" t="n">
         <v>27.09781231536524</v>
@@ -33363,13 +33363,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R31" t="n">
-        <v>8.620129901710598</v>
+        <v>8.6201299017106</v>
       </c>
       <c r="S31" t="n">
-        <v>3.34104104763025</v>
+        <v>3.341041047630251</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8191389109995918</v>
+        <v>0.819138910999592</v>
       </c>
       <c r="U31" t="n">
         <v>0.01045709248084587</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4273920544935322</v>
+        <v>0.4273920544935323</v>
       </c>
       <c r="H32" t="n">
-        <v>4.377028878081887</v>
+        <v>4.377028878081889</v>
       </c>
       <c r="I32" t="n">
         <v>16.47703218086192</v>
       </c>
       <c r="J32" t="n">
-        <v>36.27436638507046</v>
+        <v>36.27436638507047</v>
       </c>
       <c r="K32" t="n">
-        <v>54.36587205178169</v>
+        <v>54.3658720517817</v>
       </c>
       <c r="L32" t="n">
-        <v>67.44567163948814</v>
+        <v>67.44567163948815</v>
       </c>
       <c r="M32" t="n">
-        <v>75.04630508858749</v>
+        <v>75.0463050885875</v>
       </c>
       <c r="N32" t="n">
-        <v>76.26063276341723</v>
+        <v>76.26063276341726</v>
       </c>
       <c r="O32" t="n">
-        <v>72.01075302154717</v>
+        <v>72.01075302154719</v>
       </c>
       <c r="P32" t="n">
-        <v>61.45951167623809</v>
+        <v>61.45951167623811</v>
       </c>
       <c r="Q32" t="n">
-        <v>46.15353372468846</v>
+        <v>46.15353372468847</v>
       </c>
       <c r="R32" t="n">
-        <v>26.84716614307936</v>
+        <v>26.84716614307937</v>
       </c>
       <c r="S32" t="n">
-        <v>9.739196441771375</v>
+        <v>9.739196441771377</v>
       </c>
       <c r="T32" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03419136435948257</v>
+        <v>0.03419136435948258</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2286749091566103</v>
+        <v>0.2286749091566104</v>
       </c>
       <c r="H33" t="n">
         <v>2.208518201591474</v>
       </c>
       <c r="I33" t="n">
-        <v>7.87323700385698</v>
+        <v>7.873237003856982</v>
       </c>
       <c r="J33" t="n">
-        <v>21.60476411466028</v>
+        <v>21.60476411466029</v>
       </c>
       <c r="K33" t="n">
         <v>36.92598302815318</v>
       </c>
       <c r="L33" t="n">
-        <v>49.65154113069296</v>
+        <v>49.65154113069298</v>
       </c>
       <c r="M33" t="n">
-        <v>57.94100658762007</v>
+        <v>57.94100658762009</v>
       </c>
       <c r="N33" t="n">
-        <v>59.47453262314841</v>
+        <v>59.47453262314843</v>
       </c>
       <c r="O33" t="n">
-        <v>54.4075780570993</v>
+        <v>54.40757805709931</v>
       </c>
       <c r="P33" t="n">
-        <v>43.66687804763378</v>
+        <v>43.66687804763379</v>
       </c>
       <c r="Q33" t="n">
-        <v>29.19015156181574</v>
+        <v>29.19015156181575</v>
       </c>
       <c r="R33" t="n">
-        <v>14.19790357026744</v>
+        <v>14.19790357026745</v>
       </c>
       <c r="S33" t="n">
-        <v>4.247536141571246</v>
+        <v>4.247536141571247</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9217203575216001</v>
+        <v>0.9217203575216003</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01504440191819805</v>
+        <v>0.01504440191819806</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,22 +33573,22 @@
         <v>1.704506074377876</v>
       </c>
       <c r="I34" t="n">
-        <v>5.765343654439683</v>
+        <v>5.765343654439685</v>
       </c>
       <c r="J34" t="n">
-        <v>13.55413470392303</v>
+        <v>13.55413470392304</v>
       </c>
       <c r="K34" t="n">
         <v>22.27360698420167</v>
       </c>
       <c r="L34" t="n">
-        <v>28.50254840529219</v>
+        <v>28.5025484052922</v>
       </c>
       <c r="M34" t="n">
-        <v>30.05194094120418</v>
+        <v>30.05194094120419</v>
       </c>
       <c r="N34" t="n">
-        <v>29.33737295501307</v>
+        <v>29.33737295501308</v>
       </c>
       <c r="O34" t="n">
         <v>27.09781231536524</v>
@@ -33600,13 +33600,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R34" t="n">
-        <v>8.620129901710598</v>
+        <v>8.6201299017106</v>
       </c>
       <c r="S34" t="n">
-        <v>3.34104104763025</v>
+        <v>3.341041047630251</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8191389109995918</v>
+        <v>0.819138910999592</v>
       </c>
       <c r="U34" t="n">
         <v>0.01045709248084587</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4273920544935322</v>
+        <v>0.4273920544935323</v>
       </c>
       <c r="H35" t="n">
-        <v>4.377028878081887</v>
+        <v>4.377028878081889</v>
       </c>
       <c r="I35" t="n">
         <v>16.47703218086192</v>
       </c>
       <c r="J35" t="n">
-        <v>36.27436638507046</v>
+        <v>36.27436638507047</v>
       </c>
       <c r="K35" t="n">
-        <v>54.36587205178169</v>
+        <v>54.3658720517817</v>
       </c>
       <c r="L35" t="n">
-        <v>67.44567163948814</v>
+        <v>67.44567163948815</v>
       </c>
       <c r="M35" t="n">
-        <v>75.04630508858749</v>
+        <v>75.0463050885875</v>
       </c>
       <c r="N35" t="n">
-        <v>76.26063276341723</v>
+        <v>76.26063276341726</v>
       </c>
       <c r="O35" t="n">
-        <v>72.01075302154717</v>
+        <v>72.01075302154719</v>
       </c>
       <c r="P35" t="n">
-        <v>61.45951167623809</v>
+        <v>61.45951167623811</v>
       </c>
       <c r="Q35" t="n">
-        <v>46.15353372468846</v>
+        <v>46.15353372468847</v>
       </c>
       <c r="R35" t="n">
-        <v>26.84716614307936</v>
+        <v>26.84716614307937</v>
       </c>
       <c r="S35" t="n">
-        <v>9.739196441771375</v>
+        <v>9.739196441771377</v>
       </c>
       <c r="T35" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03419136435948257</v>
+        <v>0.03419136435948258</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2286749091566103</v>
+        <v>0.2286749091566104</v>
       </c>
       <c r="H36" t="n">
         <v>2.208518201591474</v>
       </c>
       <c r="I36" t="n">
-        <v>7.87323700385698</v>
+        <v>7.873237003856982</v>
       </c>
       <c r="J36" t="n">
-        <v>21.60476411466028</v>
+        <v>21.60476411466029</v>
       </c>
       <c r="K36" t="n">
         <v>36.92598302815318</v>
       </c>
       <c r="L36" t="n">
-        <v>49.65154113069296</v>
+        <v>49.65154113069298</v>
       </c>
       <c r="M36" t="n">
-        <v>57.94100658762007</v>
+        <v>57.94100658762009</v>
       </c>
       <c r="N36" t="n">
-        <v>59.47453262314841</v>
+        <v>59.47453262314843</v>
       </c>
       <c r="O36" t="n">
-        <v>54.4075780570993</v>
+        <v>54.40757805709931</v>
       </c>
       <c r="P36" t="n">
-        <v>43.66687804763378</v>
+        <v>43.66687804763379</v>
       </c>
       <c r="Q36" t="n">
-        <v>29.19015156181574</v>
+        <v>29.19015156181575</v>
       </c>
       <c r="R36" t="n">
-        <v>14.19790357026744</v>
+        <v>14.19790357026745</v>
       </c>
       <c r="S36" t="n">
-        <v>4.247536141571246</v>
+        <v>4.247536141571247</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9217203575216001</v>
+        <v>0.9217203575216003</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01504440191819805</v>
+        <v>0.01504440191819806</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,22 +33810,22 @@
         <v>1.704506074377876</v>
       </c>
       <c r="I37" t="n">
-        <v>5.765343654439683</v>
+        <v>5.765343654439685</v>
       </c>
       <c r="J37" t="n">
-        <v>13.55413470392303</v>
+        <v>13.55413470392304</v>
       </c>
       <c r="K37" t="n">
         <v>22.27360698420167</v>
       </c>
       <c r="L37" t="n">
-        <v>28.50254840529219</v>
+        <v>28.5025484052922</v>
       </c>
       <c r="M37" t="n">
-        <v>30.05194094120418</v>
+        <v>30.05194094120419</v>
       </c>
       <c r="N37" t="n">
-        <v>29.33737295501307</v>
+        <v>29.33737295501308</v>
       </c>
       <c r="O37" t="n">
         <v>27.09781231536524</v>
@@ -33837,13 +33837,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R37" t="n">
-        <v>8.620129901710598</v>
+        <v>8.6201299017106</v>
       </c>
       <c r="S37" t="n">
-        <v>3.34104104763025</v>
+        <v>3.341041047630251</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8191389109995918</v>
+        <v>0.819138910999592</v>
       </c>
       <c r="U37" t="n">
         <v>0.01045709248084587</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4273920544935322</v>
+        <v>0.4273920544935323</v>
       </c>
       <c r="H38" t="n">
-        <v>4.377028878081887</v>
+        <v>4.377028878081889</v>
       </c>
       <c r="I38" t="n">
         <v>16.47703218086192</v>
       </c>
       <c r="J38" t="n">
-        <v>36.27436638507046</v>
+        <v>36.27436638507047</v>
       </c>
       <c r="K38" t="n">
-        <v>54.36587205178169</v>
+        <v>54.3658720517817</v>
       </c>
       <c r="L38" t="n">
-        <v>67.44567163948814</v>
+        <v>67.44567163948815</v>
       </c>
       <c r="M38" t="n">
-        <v>75.04630508858749</v>
+        <v>75.0463050885875</v>
       </c>
       <c r="N38" t="n">
-        <v>76.26063276341723</v>
+        <v>76.26063276341726</v>
       </c>
       <c r="O38" t="n">
-        <v>72.01075302154717</v>
+        <v>72.01075302154719</v>
       </c>
       <c r="P38" t="n">
-        <v>61.45951167623809</v>
+        <v>61.45951167623811</v>
       </c>
       <c r="Q38" t="n">
-        <v>46.15353372468846</v>
+        <v>46.15353372468847</v>
       </c>
       <c r="R38" t="n">
-        <v>26.84716614307936</v>
+        <v>26.84716614307937</v>
       </c>
       <c r="S38" t="n">
-        <v>9.739196441771375</v>
+        <v>9.739196441771377</v>
       </c>
       <c r="T38" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03419136435948257</v>
+        <v>0.03419136435948258</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2286749091566103</v>
+        <v>0.2286749091566104</v>
       </c>
       <c r="H39" t="n">
         <v>2.208518201591474</v>
       </c>
       <c r="I39" t="n">
-        <v>7.87323700385698</v>
+        <v>7.873237003856982</v>
       </c>
       <c r="J39" t="n">
-        <v>21.60476411466028</v>
+        <v>21.60476411466029</v>
       </c>
       <c r="K39" t="n">
         <v>36.92598302815318</v>
       </c>
       <c r="L39" t="n">
-        <v>49.65154113069296</v>
+        <v>49.65154113069298</v>
       </c>
       <c r="M39" t="n">
-        <v>57.94100658762007</v>
+        <v>57.94100658762009</v>
       </c>
       <c r="N39" t="n">
-        <v>59.47453262314841</v>
+        <v>59.47453262314843</v>
       </c>
       <c r="O39" t="n">
-        <v>54.4075780570993</v>
+        <v>54.40757805709931</v>
       </c>
       <c r="P39" t="n">
-        <v>43.66687804763378</v>
+        <v>43.66687804763379</v>
       </c>
       <c r="Q39" t="n">
-        <v>29.19015156181574</v>
+        <v>29.19015156181575</v>
       </c>
       <c r="R39" t="n">
-        <v>14.19790357026744</v>
+        <v>14.19790357026745</v>
       </c>
       <c r="S39" t="n">
-        <v>4.247536141571246</v>
+        <v>4.247536141571247</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9217203575216001</v>
+        <v>0.9217203575216003</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01504440191819805</v>
+        <v>0.01504440191819806</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,22 +34047,22 @@
         <v>1.704506074377876</v>
       </c>
       <c r="I40" t="n">
-        <v>5.765343654439683</v>
+        <v>5.765343654439685</v>
       </c>
       <c r="J40" t="n">
-        <v>13.55413470392303</v>
+        <v>13.55413470392304</v>
       </c>
       <c r="K40" t="n">
         <v>22.27360698420167</v>
       </c>
       <c r="L40" t="n">
-        <v>28.50254840529219</v>
+        <v>28.5025484052922</v>
       </c>
       <c r="M40" t="n">
-        <v>30.05194094120418</v>
+        <v>30.05194094120419</v>
       </c>
       <c r="N40" t="n">
-        <v>29.33737295501307</v>
+        <v>29.33737295501308</v>
       </c>
       <c r="O40" t="n">
         <v>27.09781231536524</v>
@@ -34074,13 +34074,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R40" t="n">
-        <v>8.620129901710598</v>
+        <v>8.6201299017106</v>
       </c>
       <c r="S40" t="n">
-        <v>3.34104104763025</v>
+        <v>3.341041047630251</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8191389109995918</v>
+        <v>0.819138910999592</v>
       </c>
       <c r="U40" t="n">
         <v>0.01045709248084587</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4273920544935322</v>
+        <v>0.4273920544935323</v>
       </c>
       <c r="H41" t="n">
-        <v>4.377028878081887</v>
+        <v>4.377028878081889</v>
       </c>
       <c r="I41" t="n">
         <v>16.47703218086192</v>
       </c>
       <c r="J41" t="n">
-        <v>36.27436638507046</v>
+        <v>36.27436638507047</v>
       </c>
       <c r="K41" t="n">
-        <v>54.36587205178169</v>
+        <v>54.3658720517817</v>
       </c>
       <c r="L41" t="n">
-        <v>67.44567163948814</v>
+        <v>67.44567163948815</v>
       </c>
       <c r="M41" t="n">
-        <v>75.04630508858749</v>
+        <v>75.0463050885875</v>
       </c>
       <c r="N41" t="n">
-        <v>76.26063276341723</v>
+        <v>76.26063276341726</v>
       </c>
       <c r="O41" t="n">
-        <v>72.01075302154717</v>
+        <v>72.01075302154719</v>
       </c>
       <c r="P41" t="n">
-        <v>61.45951167623809</v>
+        <v>61.45951167623811</v>
       </c>
       <c r="Q41" t="n">
-        <v>46.15353372468846</v>
+        <v>46.15353372468847</v>
       </c>
       <c r="R41" t="n">
-        <v>26.84716614307936</v>
+        <v>26.84716614307937</v>
       </c>
       <c r="S41" t="n">
-        <v>9.739196441771375</v>
+        <v>9.739196441771377</v>
       </c>
       <c r="T41" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03419136435948257</v>
+        <v>0.03419136435948258</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2286749091566103</v>
+        <v>0.2286749091566104</v>
       </c>
       <c r="H42" t="n">
         <v>2.208518201591474</v>
       </c>
       <c r="I42" t="n">
-        <v>7.87323700385698</v>
+        <v>7.873237003856982</v>
       </c>
       <c r="J42" t="n">
-        <v>21.60476411466028</v>
+        <v>21.60476411466029</v>
       </c>
       <c r="K42" t="n">
         <v>36.92598302815318</v>
       </c>
       <c r="L42" t="n">
-        <v>49.65154113069296</v>
+        <v>49.65154113069298</v>
       </c>
       <c r="M42" t="n">
-        <v>57.94100658762007</v>
+        <v>57.94100658762009</v>
       </c>
       <c r="N42" t="n">
-        <v>59.47453262314841</v>
+        <v>59.47453262314843</v>
       </c>
       <c r="O42" t="n">
-        <v>54.4075780570993</v>
+        <v>54.40757805709931</v>
       </c>
       <c r="P42" t="n">
-        <v>43.66687804763378</v>
+        <v>43.66687804763379</v>
       </c>
       <c r="Q42" t="n">
-        <v>29.19015156181574</v>
+        <v>29.19015156181575</v>
       </c>
       <c r="R42" t="n">
-        <v>14.19790357026744</v>
+        <v>14.19790357026745</v>
       </c>
       <c r="S42" t="n">
-        <v>4.247536141571246</v>
+        <v>4.247536141571247</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9217203575216001</v>
+        <v>0.9217203575216003</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01504440191819805</v>
+        <v>0.01504440191819806</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,22 +34284,22 @@
         <v>1.704506074377876</v>
       </c>
       <c r="I43" t="n">
-        <v>5.765343654439683</v>
+        <v>5.765343654439685</v>
       </c>
       <c r="J43" t="n">
-        <v>13.55413470392303</v>
+        <v>13.55413470392304</v>
       </c>
       <c r="K43" t="n">
         <v>22.27360698420167</v>
       </c>
       <c r="L43" t="n">
-        <v>28.50254840529219</v>
+        <v>28.5025484052922</v>
       </c>
       <c r="M43" t="n">
-        <v>30.05194094120418</v>
+        <v>30.05194094120419</v>
       </c>
       <c r="N43" t="n">
-        <v>29.33737295501307</v>
+        <v>29.33737295501308</v>
       </c>
       <c r="O43" t="n">
         <v>27.09781231536524</v>
@@ -34311,13 +34311,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R43" t="n">
-        <v>8.620129901710598</v>
+        <v>8.6201299017106</v>
       </c>
       <c r="S43" t="n">
-        <v>3.34104104763025</v>
+        <v>3.341041047630251</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8191389109995918</v>
+        <v>0.819138910999592</v>
       </c>
       <c r="U43" t="n">
         <v>0.01045709248084587</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4273920544935322</v>
+        <v>0.4273920544935323</v>
       </c>
       <c r="H44" t="n">
-        <v>4.377028878081887</v>
+        <v>4.377028878081889</v>
       </c>
       <c r="I44" t="n">
         <v>16.47703218086192</v>
       </c>
       <c r="J44" t="n">
-        <v>36.27436638507046</v>
+        <v>36.27436638507047</v>
       </c>
       <c r="K44" t="n">
-        <v>54.36587205178169</v>
+        <v>54.3658720517817</v>
       </c>
       <c r="L44" t="n">
-        <v>67.44567163948814</v>
+        <v>67.44567163948815</v>
       </c>
       <c r="M44" t="n">
-        <v>75.04630508858749</v>
+        <v>75.0463050885875</v>
       </c>
       <c r="N44" t="n">
-        <v>76.26063276341723</v>
+        <v>76.26063276341726</v>
       </c>
       <c r="O44" t="n">
-        <v>72.01075302154717</v>
+        <v>72.01075302154719</v>
       </c>
       <c r="P44" t="n">
-        <v>61.45951167623809</v>
+        <v>61.45951167623811</v>
       </c>
       <c r="Q44" t="n">
-        <v>46.15353372468846</v>
+        <v>46.15353372468847</v>
       </c>
       <c r="R44" t="n">
-        <v>26.84716614307936</v>
+        <v>26.84716614307937</v>
       </c>
       <c r="S44" t="n">
-        <v>9.739196441771375</v>
+        <v>9.739196441771377</v>
       </c>
       <c r="T44" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03419136435948257</v>
+        <v>0.03419136435948258</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2286749091566103</v>
+        <v>0.2286749091566104</v>
       </c>
       <c r="H45" t="n">
         <v>2.208518201591474</v>
       </c>
       <c r="I45" t="n">
-        <v>7.87323700385698</v>
+        <v>7.873237003856982</v>
       </c>
       <c r="J45" t="n">
-        <v>21.60476411466028</v>
+        <v>21.60476411466029</v>
       </c>
       <c r="K45" t="n">
         <v>36.92598302815318</v>
       </c>
       <c r="L45" t="n">
-        <v>49.65154113069296</v>
+        <v>49.65154113069298</v>
       </c>
       <c r="M45" t="n">
-        <v>57.94100658762007</v>
+        <v>57.94100658762009</v>
       </c>
       <c r="N45" t="n">
-        <v>59.47453262314841</v>
+        <v>59.47453262314843</v>
       </c>
       <c r="O45" t="n">
-        <v>54.4075780570993</v>
+        <v>54.40757805709931</v>
       </c>
       <c r="P45" t="n">
-        <v>43.66687804763378</v>
+        <v>43.66687804763379</v>
       </c>
       <c r="Q45" t="n">
-        <v>29.19015156181574</v>
+        <v>29.19015156181575</v>
       </c>
       <c r="R45" t="n">
-        <v>14.19790357026744</v>
+        <v>14.19790357026745</v>
       </c>
       <c r="S45" t="n">
-        <v>4.247536141571246</v>
+        <v>4.247536141571247</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9217203575216001</v>
+        <v>0.9217203575216003</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01504440191819805</v>
+        <v>0.01504440191819806</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,22 +34521,22 @@
         <v>1.704506074377876</v>
       </c>
       <c r="I46" t="n">
-        <v>5.765343654439683</v>
+        <v>5.765343654439685</v>
       </c>
       <c r="J46" t="n">
-        <v>13.55413470392303</v>
+        <v>13.55413470392304</v>
       </c>
       <c r="K46" t="n">
         <v>22.27360698420167</v>
       </c>
       <c r="L46" t="n">
-        <v>28.50254840529219</v>
+        <v>28.5025484052922</v>
       </c>
       <c r="M46" t="n">
-        <v>30.05194094120418</v>
+        <v>30.05194094120419</v>
       </c>
       <c r="N46" t="n">
-        <v>29.33737295501307</v>
+        <v>29.33737295501308</v>
       </c>
       <c r="O46" t="n">
         <v>27.09781231536524</v>
@@ -34548,13 +34548,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R46" t="n">
-        <v>8.620129901710598</v>
+        <v>8.6201299017106</v>
       </c>
       <c r="S46" t="n">
-        <v>3.34104104763025</v>
+        <v>3.341041047630251</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8191389109995918</v>
+        <v>0.819138910999592</v>
       </c>
       <c r="U46" t="n">
         <v>0.01045709248084587</v>
@@ -35410,31 +35410,31 @@
         <v>69.34789868787092</v>
       </c>
       <c r="K11" t="n">
-        <v>48.39545783628788</v>
+        <v>44.03659593153289</v>
       </c>
       <c r="L11" t="n">
-        <v>29.03839895267144</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>58.8195086908015</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>60.96700599631306</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>56.03197842934721</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>44.34595275045531</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>37.96728067972573</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>14.83856368501278</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>69.44556422910037</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>69.44556422910037</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,10 +35541,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>33.74841947564107</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.87261573085891</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -35574,7 +35574,7 @@
         <v>72.40356150710426</v>
       </c>
       <c r="M13" t="n">
-        <v>72.40356150710426</v>
+        <v>69.63581790304477</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -35583,10 +35583,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>20.46541899242236</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.38787261001814</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>20.12057943994275</v>
+        <v>7.600555903613134</v>
       </c>
       <c r="J14" t="n">
-        <v>72.40356150710426</v>
+        <v>69.34789868787092</v>
       </c>
       <c r="K14" t="n">
-        <v>11.39030496290633</v>
+        <v>48.3954578362879</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>72.40356150710426</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>60.96700599631309</v>
       </c>
       <c r="O14" t="n">
-        <v>72.40356150710426</v>
+        <v>56.03197842934721</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>44.34595275045531</v>
       </c>
       <c r="Q14" t="n">
-        <v>37.96728067972572</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>69.44556422910037</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35784,7 +35784,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>24.25652120601545</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -35796,19 +35796,19 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>53.59677039642504</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>5.449730095336234</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="M16" t="n">
         <v>72.40356150710426</v>
@@ -35817,10 +35817,10 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
         <v>72.40356150710426</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35884,17 +35884,17 @@
         <v>72.40356150710426</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>72.40356150710426</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
@@ -35902,19 +35902,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
+        <v>69.4781650825748</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
         <v>72.40356150710426</v>
-      </c>
-      <c r="R17" t="n">
-        <v>69.4781650825748</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -36121,19 +36121,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>72.40356150710426</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>69.4781650825748</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>72.40356150710426</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>72.40356150710426</v>
@@ -36142,13 +36142,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>72.40356150710426</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -36349,31 +36349,31 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>12.7464270828649</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>72.40356150710431</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>56.7317379997099</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>72.40356150710426</v>
+        <v>49.38622323215966</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>72.40356150710426</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>72.40356150710426</v>
+        <v>72.40356150710431</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36388,10 +36388,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>72.40356150710431</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>20.0919418504152</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36589,37 +36589,37 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>27.22608345604185</v>
+        <v>27.22608345604191</v>
       </c>
       <c r="J26" t="n">
-        <v>24.38584145229691</v>
+        <v>76.45340270397008</v>
       </c>
       <c r="K26" t="n">
-        <v>379.6463744235517</v>
+        <v>55.50096185238706</v>
       </c>
       <c r="L26" t="n">
-        <v>430.5925962394322</v>
+        <v>430.5925962394319</v>
       </c>
       <c r="M26" t="n">
-        <v>65.9250127069006</v>
+        <v>430.5925962394319</v>
       </c>
       <c r="N26" t="n">
-        <v>68.07251001241217</v>
+        <v>68.07251001241225</v>
       </c>
       <c r="O26" t="n">
-        <v>430.5925962394322</v>
+        <v>188.853751984232</v>
       </c>
       <c r="P26" t="n">
-        <v>256.5876220704105</v>
+        <v>373.2501649380371</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>32.48656917453315</v>
       </c>
       <c r="S26" t="n">
-        <v>21.94406770111188</v>
+        <v>21.94406770111194</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>47.69624064140797</v>
+        <v>47.6962406414078</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>65.300212801165</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -36765,13 +36765,13 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>109.8662147091083</v>
+        <v>51.68294022940492</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>123.4834872808681</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,37 +36826,37 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>27.22608345604185</v>
+        <v>27.22608345604194</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>245.5500178760439</v>
       </c>
       <c r="K29" t="n">
-        <v>379.6463744235517</v>
+        <v>379.6463744235518</v>
       </c>
       <c r="L29" t="n">
-        <v>89.51070087387868</v>
+        <v>52.90419751508685</v>
       </c>
       <c r="M29" t="n">
-        <v>430.5925962394322</v>
+        <v>65.9250127069007</v>
       </c>
       <c r="N29" t="n">
-        <v>68.07251001241217</v>
+        <v>238.2547089518509</v>
       </c>
       <c r="O29" t="n">
-        <v>430.5925962394322</v>
+        <v>222.7127228626058</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>373.2501649380371</v>
       </c>
       <c r="Q29" t="n">
-        <v>257.3877753557295</v>
+        <v>45.07278469582491</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>32.48656917453318</v>
       </c>
       <c r="S29" t="n">
-        <v>21.94406770111188</v>
+        <v>21.94406770111197</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -36929,13 +36929,13 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>47.69624064140771</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>47.69624064140797</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -36993,16 +36993,16 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>62.81532967108781</v>
       </c>
       <c r="M31" t="n">
-        <v>123.4834872808684</v>
+        <v>112.3510978391851</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>51.68294022940491</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37063,37 +37063,37 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>27.22608345604194</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>158.4214335779659</v>
+        <v>379.6463744235518</v>
       </c>
       <c r="L32" t="n">
-        <v>430.5925962394322</v>
+        <v>52.90419751508682</v>
       </c>
       <c r="M32" t="n">
-        <v>430.5925962394322</v>
+        <v>430.5925962394319</v>
       </c>
       <c r="N32" t="n">
-        <v>430.5925962394322</v>
+        <v>68.07251001241225</v>
       </c>
       <c r="O32" t="n">
-        <v>131.0231570869062</v>
+        <v>430.5925962394319</v>
       </c>
       <c r="P32" t="n">
-        <v>51.45145676655449</v>
+        <v>321.2203621705626</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.07278469582491</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>21.94406770111194</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -37133,7 +37133,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>47.69624064140771</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>47.6962406414078</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37203,7 +37203,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>53.9781197469581</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>101.6968821760314</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -37236,19 +37236,19 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>73.46954533424167</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.6837965239672</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>14.50451123934756</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>50.64139524743932</v>
+        <v>50.64139524743941</v>
       </c>
       <c r="J35" t="n">
-        <v>99.8687144953675</v>
+        <v>225.0426830319723</v>
       </c>
       <c r="K35" t="n">
-        <v>78.91627364378445</v>
+        <v>78.91627364378456</v>
       </c>
       <c r="L35" t="n">
-        <v>293.4542431666549</v>
+        <v>76.31950930648432</v>
       </c>
       <c r="M35" t="n">
-        <v>257.4967304382251</v>
+        <v>89.34032449829817</v>
       </c>
       <c r="N35" t="n">
-        <v>358.1890347323279</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>86.55279423684377</v>
+        <v>358.1890347323277</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>358.1890347323277</v>
       </c>
       <c r="Q35" t="n">
-        <v>68.48809648722229</v>
+        <v>56.96902725522999</v>
       </c>
       <c r="R35" t="n">
-        <v>55.90188096593056</v>
+        <v>55.90188096593065</v>
       </c>
       <c r="S35" t="n">
-        <v>45.35937949250935</v>
+        <v>45.35937949250944</v>
       </c>
       <c r="T35" t="n">
-        <v>23.4153117913974</v>
+        <v>23.41531179139749</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37373,7 +37373,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>7.197970129513519</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -37412,7 +37412,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>7.197970129513608</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>92.89710847207309</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>92.89710847207336</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>50.64139524743932</v>
+        <v>50.64139524743941</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>99.86871449536758</v>
       </c>
       <c r="K38" t="n">
-        <v>276.8943687213931</v>
+        <v>358.189034732328</v>
       </c>
       <c r="L38" t="n">
-        <v>76.31950930648422</v>
+        <v>56.0527285996337</v>
       </c>
       <c r="M38" t="n">
-        <v>89.34032449829807</v>
+        <v>89.34032449829817</v>
       </c>
       <c r="N38" t="n">
-        <v>358.1890347323279</v>
+        <v>91.48782180380975</v>
       </c>
       <c r="O38" t="n">
-        <v>86.55279423684377</v>
+        <v>358.189034732328</v>
       </c>
       <c r="P38" t="n">
-        <v>74.86676855795187</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>280.803087147127</v>
+        <v>169.4811879581877</v>
       </c>
       <c r="R38" t="n">
-        <v>55.90188096593056</v>
+        <v>121.6183008389131</v>
       </c>
       <c r="S38" t="n">
-        <v>45.35937949250935</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>23.4153117913974</v>
+        <v>23.41531179139749</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37631,13 +37631,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>7.197970129513522</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>7.197970129513608</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37674,7 +37674,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>64.80827245504611</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -37686,13 +37686,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>92.89710847207336</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>28.088836017027</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37774,40 +37774,40 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>50.64139524743933</v>
       </c>
       <c r="J41" t="n">
-        <v>99.86871449536744</v>
+        <v>99.8687144953675</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>146.442730637098</v>
       </c>
       <c r="L41" t="n">
-        <v>76.31950930648416</v>
+        <v>76.31950930648424</v>
       </c>
       <c r="M41" t="n">
-        <v>358.1890347323279</v>
+        <v>89.34032449829809</v>
       </c>
       <c r="N41" t="n">
-        <v>91.48782180380958</v>
+        <v>91.48782180380967</v>
       </c>
       <c r="O41" t="n">
-        <v>86.55279423684371</v>
+        <v>358.189034732328</v>
       </c>
       <c r="P41" t="n">
-        <v>258.0852126443204</v>
+        <v>358.189034732328</v>
       </c>
       <c r="Q41" t="n">
-        <v>280.8030871471269</v>
+        <v>68.48809648722229</v>
       </c>
       <c r="R41" t="n">
-        <v>121.6183008389129</v>
+        <v>55.90188096593057</v>
       </c>
       <c r="S41" t="n">
-        <v>45.3593794925093</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>23.4153117913974</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.197970129513665</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>7.197970129513608</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37929,13 +37929,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>84.11758620392162</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.89710847207354</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>8.779522268151748</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -38011,40 +38011,40 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>50.64139524743926</v>
+        <v>50.64139524743933</v>
       </c>
       <c r="J44" t="n">
-        <v>268.9653296674412</v>
+        <v>268.9653296674413</v>
       </c>
       <c r="K44" t="n">
-        <v>20.60826352924017</v>
+        <v>78.91627364378448</v>
       </c>
       <c r="L44" t="n">
-        <v>76.31950930648416</v>
+        <v>76.31950930648424</v>
       </c>
       <c r="M44" t="n">
-        <v>294.2136053541473</v>
+        <v>358.189034732328</v>
       </c>
       <c r="N44" t="n">
-        <v>91.48782180380958</v>
+        <v>91.48782180380967</v>
       </c>
       <c r="O44" t="n">
-        <v>86.55279423684371</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>336.3304668152377</v>
+        <v>74.86676855795189</v>
       </c>
       <c r="Q44" t="n">
-        <v>68.48809648722224</v>
+        <v>228.5047296156442</v>
       </c>
       <c r="R44" t="n">
-        <v>55.9018809659305</v>
+        <v>121.618300838913</v>
       </c>
       <c r="S44" t="n">
-        <v>45.3593794925093</v>
+        <v>45.35937949250935</v>
       </c>
       <c r="T44" t="n">
-        <v>23.41531179139734</v>
+        <v>23.4153117913974</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38087,7 +38087,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>7.197970129513665</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -38120,7 +38120,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>7.197970129513608</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -38166,10 +38166,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>84.11758620392162</v>
       </c>
       <c r="I46" t="n">
-        <v>92.89710847207354</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -38202,7 +38202,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>8.779522268151748</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
